--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1281714.18612982</v>
+        <v>-1283500.10786247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>578027.2579048137</v>
+        <v>177059.1188043178</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>236.3626115273232</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
-        <v>69.06579040599271</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.84593656020944</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30.67216562115158</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>209.8314970546278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.8458623907674</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621467</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>166.7881233112095</v>
+        <v>184.0164113617194</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1609600883624</v>
+        <v>236.7139500600953</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>29.32896647360269</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.3435022314989</v>
+        <v>341.6891271154207</v>
       </c>
       <c r="H11" t="n">
         <v>309.1685337672278</v>
       </c>
       <c r="I11" t="n">
-        <v>96.3899712980207</v>
+        <v>96.38997129802068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>141.5864955603851</v>
       </c>
       <c r="T11" t="n">
         <v>210.1417971100138</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.852456789957969</v>
+        <v>1.852456789957955</v>
       </c>
       <c r="S12" t="n">
         <v>142.2735021909407</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>117.6081625890531</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.0552267771329</v>
+        <v>222.2739239348697</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.9429596884293</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>338.4760352887533</v>
       </c>
       <c r="D14" t="n">
-        <v>252.308611514453</v>
+        <v>252.3086115144525</v>
       </c>
       <c r="E14" t="n">
         <v>355.1335135900076</v>
@@ -1625,7 +1625,7 @@
         <v>282.3716772849735</v>
       </c>
       <c r="I14" t="n">
-        <v>69.59311481576646</v>
+        <v>69.59311481576643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>96.94380528816129</v>
       </c>
       <c r="I15" t="n">
-        <v>34.88284277674154</v>
+        <v>34.88284277674153</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.852456789957941</v>
+        <v>1.852456789957927</v>
       </c>
       <c r="S15" t="n">
         <v>142.2735021909407</v>
@@ -1765,19 +1765,19 @@
         <v>153.0351236996831</v>
       </c>
       <c r="C16" t="n">
-        <v>108.1275898261495</v>
+        <v>140.4499646163736</v>
       </c>
       <c r="D16" t="n">
         <v>121.8186165359581</v>
       </c>
       <c r="E16" t="n">
-        <v>119.637106164315</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.8667118032784</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.81130610679888</v>
       </c>
       <c r="S16" t="n">
-        <v>174.0865867656321</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.4497686338952</v>
       </c>
       <c r="V16" t="n">
-        <v>225.3407868415738</v>
+        <v>16.62160018954439</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.7261418543368</v>
       </c>
       <c r="X16" t="n">
         <v>198.9127989067829</v>
@@ -1862,7 +1862,7 @@
         <v>277.3331723767085</v>
       </c>
       <c r="I17" t="n">
-        <v>64.5546099075014</v>
+        <v>64.55460990750143</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.7511341698658</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3064357194945</v>
+        <v>178.3064357194946</v>
       </c>
       <c r="U17" t="n">
         <v>219.2735526946263</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>147.9966187914181</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>135.4114597081086</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.607613731116623</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>169.048081857367</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>190.4385625443504</v>
+        <v>190.4385625443505</v>
       </c>
       <c r="U19" t="n">
         <v>254.4112637256302</v>
       </c>
       <c r="V19" t="n">
-        <v>220.3022819333087</v>
+        <v>220.3022819333088</v>
       </c>
       <c r="W19" t="n">
-        <v>254.6876369460717</v>
+        <v>142.9352540350286</v>
       </c>
       <c r="X19" t="n">
         <v>193.8742939985179</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.7492919615755</v>
+        <v>186.7492919615756</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.8984802729614</v>
+        <v>350.8984802729613</v>
       </c>
       <c r="C20" t="n">
         <v>333.4375303804883</v>
@@ -2087,7 +2087,7 @@
         <v>322.8476802301637</v>
       </c>
       <c r="E20" t="n">
-        <v>350.0950086817426</v>
+        <v>350.0950086817425</v>
       </c>
       <c r="F20" t="n">
         <v>375.0406843511922</v>
@@ -2099,7 +2099,7 @@
         <v>277.3331723767085</v>
       </c>
       <c r="I20" t="n">
-        <v>64.55460990750149</v>
+        <v>64.55460990750143</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.7511341698659</v>
+        <v>109.7511341698658</v>
       </c>
       <c r="T20" t="n">
         <v>178.3064357194946</v>
       </c>
       <c r="U20" t="n">
-        <v>219.2735526946264</v>
+        <v>219.2735526946263</v>
       </c>
       <c r="V20" t="n">
-        <v>295.9168970796157</v>
+        <v>295.9168970796156</v>
       </c>
       <c r="W20" t="n">
-        <v>317.4056073268938</v>
+        <v>317.4056073268937</v>
       </c>
       <c r="X20" t="n">
         <v>337.8957392879498</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.4025772655344</v>
+        <v>354.4025772655343</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.9966187914181</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>135.4114597081087</v>
+        <v>135.4114597081086</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>116.7801116276931</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.5986012560499</v>
       </c>
       <c r="F22" t="n">
-        <v>113.5856866324121</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>80.32739425811552</v>
+        <v>85.77280119853387</v>
       </c>
       <c r="S22" t="n">
         <v>169.0480818573671</v>
@@ -2293,19 +2293,19 @@
         <v>190.4385625443505</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>254.4112637256302</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>220.3022819333088</v>
       </c>
       <c r="W22" t="n">
-        <v>254.6876369460718</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>193.874293998518</v>
+        <v>185.3558628468962</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.7492919615756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>277.3331723767085</v>
       </c>
       <c r="I23" t="n">
-        <v>64.55460990749943</v>
+        <v>64.55460990750149</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.7511341698658</v>
+        <v>109.7511341698659</v>
       </c>
       <c r="T23" t="n">
         <v>178.3064357194946</v>
@@ -2378,7 +2378,7 @@
         <v>295.9168970796157</v>
       </c>
       <c r="W23" t="n">
-        <v>317.4056073268938</v>
+        <v>317.4056073268933</v>
       </c>
       <c r="X23" t="n">
         <v>337.8957392879498</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>147.9966187914181</v>
       </c>
       <c r="C25" t="n">
-        <v>135.4114597081086</v>
+        <v>23.52583068723537</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.94544598458268</v>
+        <v>85.77280119853391</v>
       </c>
       <c r="S25" t="n">
         <v>169.0480818573671</v>
@@ -2530,19 +2530,19 @@
         <v>190.4385625443505</v>
       </c>
       <c r="U25" t="n">
-        <v>254.4112637256302</v>
+        <v>254.4112637256303</v>
       </c>
       <c r="V25" t="n">
         <v>220.3022819333088</v>
       </c>
       <c r="W25" t="n">
-        <v>254.6876369460718</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>193.8742939985179</v>
+        <v>193.874293998518</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.7492919615756</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>277.3331723767084</v>
       </c>
       <c r="I26" t="n">
-        <v>64.55460990750136</v>
+        <v>64.55460990750133</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.7511341698658</v>
+        <v>109.7511341698657</v>
       </c>
       <c r="T26" t="n">
         <v>178.3064357194945</v>
       </c>
       <c r="U26" t="n">
-        <v>219.2735526946263</v>
+        <v>219.2735526946262</v>
       </c>
       <c r="V26" t="n">
         <v>295.9168970796156</v>
@@ -2713,16 +2713,16 @@
         <v>147.996618791418</v>
       </c>
       <c r="C28" t="n">
-        <v>135.4114597081085</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>114.5986012560499</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>14.92081675020144</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.69624236183216</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>85.7728011985338</v>
+        <v>85.77280119853377</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.048081857367</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>190.4385625443504</v>
       </c>
       <c r="U28" t="n">
-        <v>254.4112637256301</v>
+        <v>23.24945746679631</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>220.3022819333087</v>
       </c>
       <c r="W28" t="n">
         <v>254.6876369460717</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.996618791418</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>135.4114597081086</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>134.8282068950133</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.82748869347068</v>
       </c>
       <c r="S31" t="n">
-        <v>169.048081857367</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>190.4385625443504</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>254.4112637256302</v>
       </c>
       <c r="V31" t="n">
         <v>220.3022819333087</v>
       </c>
       <c r="W31" t="n">
-        <v>228.2984359032925</v>
+        <v>254.6876369460717</v>
       </c>
       <c r="X31" t="n">
         <v>193.8742939985179</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>306.9128743083455</v>
+        <v>360.1292249365001</v>
       </c>
       <c r="C32" t="n">
         <v>289.4519244158724</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>278.8620742655479</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.3435022314989</v>
+        <v>336.5225348763638</v>
       </c>
       <c r="H32" t="n">
-        <v>233.3475664120926</v>
+        <v>233.3475664120927</v>
       </c>
       <c r="I32" t="n">
-        <v>20.56900394288556</v>
+        <v>96.38997129802067</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.76552820524994</v>
+        <v>141.5864955603851</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1417971100138</v>
+        <v>134.3208297548787</v>
       </c>
       <c r="U32" t="n">
-        <v>228.5042973581681</v>
+        <v>175.2879467300105</v>
       </c>
       <c r="V32" t="n">
-        <v>251.9312911149998</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>104.0110128268022</v>
       </c>
       <c r="C34" t="n">
-        <v>91.42585374349272</v>
+        <v>91.42585374349275</v>
       </c>
       <c r="D34" t="n">
-        <v>72.79450566307725</v>
+        <v>72.79450566307727</v>
       </c>
       <c r="E34" t="n">
-        <v>70.61299529143406</v>
+        <v>70.61299529143409</v>
       </c>
       <c r="F34" t="n">
-        <v>69.60008066779614</v>
+        <v>69.60008066779616</v>
       </c>
       <c r="G34" t="n">
-        <v>90.84260093039748</v>
+        <v>90.84260093039751</v>
       </c>
       <c r="H34" t="n">
-        <v>74.60431397665184</v>
+        <v>74.60431397665187</v>
       </c>
       <c r="I34" t="n">
-        <v>39.71063639721636</v>
+        <v>39.71063639721639</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.787195233918</v>
+        <v>41.78719523391803</v>
       </c>
       <c r="S34" t="n">
         <v>125.0624758927512</v>
@@ -3241,7 +3241,7 @@
         <v>146.4529565797346</v>
       </c>
       <c r="U34" t="n">
-        <v>210.4256577610143</v>
+        <v>210.4256577610144</v>
       </c>
       <c r="V34" t="n">
         <v>176.3166759686929</v>
@@ -3250,7 +3250,7 @@
         <v>210.7020309814559</v>
       </c>
       <c r="X34" t="n">
-        <v>149.888688033902</v>
+        <v>149.8886880339021</v>
       </c>
       <c r="Y34" t="n">
         <v>142.7636859969597</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>331.0550783865764</v>
       </c>
       <c r="G35" t="n">
         <v>412.3435022314989</v>
@@ -3284,7 +3284,7 @@
         <v>309.1685337672278</v>
       </c>
       <c r="I35" t="n">
-        <v>96.38997129802067</v>
+        <v>20.56900394288562</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.76552820524996</v>
+        <v>141.5864955603851</v>
       </c>
       <c r="T35" t="n">
-        <v>134.3208297548788</v>
+        <v>210.1417971100138</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1089140851456</v>
+        <v>175.2879467300105</v>
       </c>
       <c r="V35" t="n">
-        <v>305.1476417431567</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>326.6363519904344</v>
       </c>
       <c r="X35" t="n">
-        <v>293.910133323334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>306.9128743083455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>289.4519244158724</v>
@@ -3512,16 +3512,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>331.0550783865764</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.3435022314989</v>
+        <v>336.5225348763637</v>
       </c>
       <c r="H38" t="n">
-        <v>309.1685337672278</v>
+        <v>233.3475664120926</v>
       </c>
       <c r="I38" t="n">
-        <v>73.785354571043</v>
+        <v>20.56900394288557</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.76552820524996</v>
+        <v>65.76552820524998</v>
       </c>
       <c r="T38" t="n">
         <v>210.1417971100138</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>293.910133323334</v>
+        <v>347.1264839514898</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>96.94380528816129</v>
       </c>
       <c r="I39" t="n">
-        <v>34.88284277674154</v>
+        <v>34.88284277674155</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.852456789957941</v>
+        <v>1.852456789957955</v>
       </c>
       <c r="S39" t="n">
         <v>142.2735021909407</v>
@@ -3661,25 +3661,25 @@
         <v>104.0110128268022</v>
       </c>
       <c r="C40" t="n">
-        <v>91.42585374349275</v>
+        <v>91.42585374349274</v>
       </c>
       <c r="D40" t="n">
-        <v>72.79450566307727</v>
+        <v>72.79450566307726</v>
       </c>
       <c r="E40" t="n">
-        <v>70.61299529143409</v>
+        <v>70.61299529143407</v>
       </c>
       <c r="F40" t="n">
-        <v>69.60008066779616</v>
+        <v>69.60008066779615</v>
       </c>
       <c r="G40" t="n">
-        <v>90.84260093039751</v>
+        <v>90.8426009303975</v>
       </c>
       <c r="H40" t="n">
-        <v>74.60431397665187</v>
+        <v>74.60431397665185</v>
       </c>
       <c r="I40" t="n">
-        <v>39.71063639721639</v>
+        <v>39.71063639721638</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.78719523391803</v>
+        <v>41.78719523391802</v>
       </c>
       <c r="S40" t="n">
         <v>125.0624758927512</v>
@@ -3715,7 +3715,7 @@
         <v>146.4529565797346</v>
       </c>
       <c r="U40" t="n">
-        <v>210.4256577610144</v>
+        <v>210.4256577610143</v>
       </c>
       <c r="V40" t="n">
         <v>176.3166759686929</v>
@@ -3724,7 +3724,7 @@
         <v>210.7020309814559</v>
       </c>
       <c r="X40" t="n">
-        <v>149.8886880339021</v>
+        <v>149.888688033902</v>
       </c>
       <c r="Y40" t="n">
         <v>142.7636859969597</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>306.1094027171267</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3755,10 @@
         <v>412.3435022314989</v>
       </c>
       <c r="H41" t="n">
-        <v>286.5639170402496</v>
+        <v>309.1685337672278</v>
       </c>
       <c r="I41" t="n">
-        <v>20.56900394288564</v>
+        <v>73.78535457104078</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.76552820525002</v>
+        <v>65.76552820525001</v>
       </c>
       <c r="T41" t="n">
         <v>134.3208297548788</v>
       </c>
       <c r="U41" t="n">
-        <v>175.2879467300106</v>
+        <v>251.1089140851456</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>251.9312911149999</v>
       </c>
       <c r="W41" t="n">
-        <v>273.420001362278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>310.4169713009185</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.94380528816129</v>
       </c>
       <c r="I42" t="n">
-        <v>34.88284277674154</v>
+        <v>34.88284277674155</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.852456789957941</v>
+        <v>1.852456789957955</v>
       </c>
       <c r="S42" t="n">
         <v>142.2735021909407</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.0110128268023</v>
+        <v>104.0110128268022</v>
       </c>
       <c r="C43" t="n">
-        <v>91.42585374349281</v>
+        <v>91.42585374349278</v>
       </c>
       <c r="D43" t="n">
-        <v>72.79450566307733</v>
+        <v>72.7945056630773</v>
       </c>
       <c r="E43" t="n">
-        <v>70.61299529143415</v>
+        <v>70.61299529143412</v>
       </c>
       <c r="F43" t="n">
-        <v>69.60008066779622</v>
+        <v>69.60008066779619</v>
       </c>
       <c r="G43" t="n">
-        <v>90.84260093039757</v>
+        <v>90.84260093039754</v>
       </c>
       <c r="H43" t="n">
-        <v>74.60431397665192</v>
+        <v>74.60431397665189</v>
       </c>
       <c r="I43" t="n">
-        <v>39.71063639721645</v>
+        <v>39.71063639721643</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.78719523391808</v>
+        <v>41.78719523391806</v>
       </c>
       <c r="S43" t="n">
         <v>125.0624758927513</v>
@@ -3955,16 +3955,16 @@
         <v>210.4256577610144</v>
       </c>
       <c r="V43" t="n">
-        <v>176.316675968693</v>
+        <v>176.3166759686929</v>
       </c>
       <c r="W43" t="n">
-        <v>210.702030981456</v>
+        <v>210.7020309814559</v>
       </c>
       <c r="X43" t="n">
         <v>149.8886880339021</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.7636859969598</v>
+        <v>142.7636859969597</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>306.9128743083455</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>289.4519244158725</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>331.0550783865764</v>
       </c>
       <c r="G44" t="n">
-        <v>336.5225348763637</v>
+        <v>412.3435022314989</v>
       </c>
       <c r="H44" t="n">
-        <v>233.3475664120926</v>
+        <v>233.3475664120927</v>
       </c>
       <c r="I44" t="n">
-        <v>20.56900394288557</v>
+        <v>73.7853545710403</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.76552820524995</v>
+        <v>141.5864955603851</v>
       </c>
       <c r="T44" t="n">
         <v>210.1417971100138</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1089140851456</v>
+        <v>175.2879467300105</v>
       </c>
       <c r="V44" t="n">
-        <v>251.9312911149998</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>273.4200013622779</v>
+        <v>273.420001362278</v>
       </c>
       <c r="X44" t="n">
-        <v>347.1264839514911</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>104.0110128268022</v>
       </c>
       <c r="C46" t="n">
-        <v>91.42585374349272</v>
+        <v>91.42585374349278</v>
       </c>
       <c r="D46" t="n">
-        <v>72.79450566307725</v>
+        <v>72.7945056630773</v>
       </c>
       <c r="E46" t="n">
-        <v>70.61299529143406</v>
+        <v>70.61299529143412</v>
       </c>
       <c r="F46" t="n">
-        <v>69.60008066779614</v>
+        <v>69.60008066779619</v>
       </c>
       <c r="G46" t="n">
-        <v>90.84260093039748</v>
+        <v>90.84260093039754</v>
       </c>
       <c r="H46" t="n">
-        <v>74.60431397665184</v>
+        <v>74.60431397665189</v>
       </c>
       <c r="I46" t="n">
-        <v>39.71063639721637</v>
+        <v>39.71063639721643</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.78719523391801</v>
+        <v>41.78719523391806</v>
       </c>
       <c r="S46" t="n">
-        <v>125.0624758927512</v>
+        <v>125.0624758927513</v>
       </c>
       <c r="T46" t="n">
-        <v>146.4529565797346</v>
+        <v>146.4529565797347</v>
       </c>
       <c r="U46" t="n">
-        <v>210.4256577610143</v>
+        <v>210.4256577610144</v>
       </c>
       <c r="V46" t="n">
         <v>176.3166759686929</v>
@@ -4198,7 +4198,7 @@
         <v>210.7020309814559</v>
       </c>
       <c r="X46" t="n">
-        <v>149.888688033902</v>
+        <v>149.8886880339021</v>
       </c>
       <c r="Y46" t="n">
         <v>142.7636859969597</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1165460204547</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1165460204547</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1165460204547</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1165460204547</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1710452712513</v>
+        <v>539.788607186773</v>
       </c>
       <c r="G2" t="n">
-        <v>91.85594574870633</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>91.85594574870633</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
@@ -4331,13 +4331,13 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>393.0625194571775</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="X2" t="n">
-        <v>114.1165460204547</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.1165460204547</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.8621476071925</v>
+        <v>476.5047853605082</v>
       </c>
       <c r="C3" t="n">
-        <v>279.4091183260655</v>
+        <v>476.5047853605082</v>
       </c>
       <c r="D3" t="n">
-        <v>279.4091183260655</v>
+        <v>327.5703756992569</v>
       </c>
       <c r="E3" t="n">
-        <v>279.4091183260655</v>
+        <v>281.2613488707625</v>
       </c>
       <c r="F3" t="n">
-        <v>279.4091183260655</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>140.7543825546117</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6304662944901</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>385.5935721628392</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="M3" t="n">
-        <v>385.5935721628392</v>
+        <v>301.7940899785173</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9885207281711</v>
+        <v>571.8505627155204</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>838.3473762988042</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="W3" t="n">
-        <v>869.4739465776793</v>
+        <v>476.5047853605082</v>
       </c>
       <c r="X3" t="n">
-        <v>661.6224463721464</v>
+        <v>476.5047853605082</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.8621476071925</v>
+        <v>476.5047853605082</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
         <v>22.09252109618844</v>
@@ -4516,22 +4516,22 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1017.998017761265</v>
+        <v>1060.400888678774</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>691.4383717383625</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>333.172673131612</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4601,16 +4601,16 @@
         <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1447.000728742896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>2539.444886308983</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>2312.136698977585</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>2022.963088632153</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1521.073833303755</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.111316363343</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="D8" t="n">
-        <v>793.8456177565924</v>
+        <v>792.9957774765639</v>
       </c>
       <c r="E8" t="n">
-        <v>793.8456177565924</v>
+        <v>407.2075248783197</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187103</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2098.803718400969</v>
+        <v>1955.787056218762</v>
       </c>
       <c r="C11" t="n">
-        <v>2069.178499740764</v>
+        <v>1586.824539278351</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.912801134014</v>
+        <v>1228.5588406716</v>
       </c>
       <c r="E11" t="n">
-        <v>1325.12454853577</v>
+        <v>842.7705880733562</v>
       </c>
       <c r="F11" t="n">
-        <v>914.1386437461624</v>
+        <v>842.7705880733562</v>
       </c>
       <c r="G11" t="n">
-        <v>497.6300556335372</v>
+        <v>497.6300556335373</v>
       </c>
       <c r="H11" t="n">
         <v>185.3386073838122</v>
       </c>
       <c r="I11" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="J11" t="n">
-        <v>324.7949852489814</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K11" t="n">
         <v>800.471558118636</v>
@@ -5060,31 +5060,31 @@
         <v>4056.613558792576</v>
       </c>
       <c r="Q11" t="n">
-        <v>4363.091244613589</v>
+        <v>4363.09124461359</v>
       </c>
       <c r="R11" t="n">
-        <v>4398.750000603707</v>
+        <v>4398.750000603708</v>
       </c>
       <c r="S11" t="n">
-        <v>4398.750000603707</v>
+        <v>4255.733338421501</v>
       </c>
       <c r="T11" t="n">
-        <v>4186.485559078441</v>
+        <v>4043.468896896234</v>
       </c>
       <c r="U11" t="n">
-        <v>3932.840191315667</v>
+        <v>3789.823529133461</v>
       </c>
       <c r="V11" t="n">
-        <v>3601.777303972096</v>
+        <v>3458.760641789891</v>
       </c>
       <c r="W11" t="n">
-        <v>3249.008648701982</v>
+        <v>3105.991986519776</v>
       </c>
       <c r="X11" t="n">
-        <v>2875.542890440903</v>
+        <v>2732.526228258696</v>
       </c>
       <c r="Y11" t="n">
-        <v>2485.403558465091</v>
+        <v>2342.386896282884</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I12" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="J12" t="n">
         <v>235.3299811568568</v>
       </c>
       <c r="K12" t="n">
-        <v>613.8039574041799</v>
+        <v>360.6875412146942</v>
       </c>
       <c r="L12" t="n">
-        <v>965.0208889940459</v>
+        <v>384.4831913035076</v>
       </c>
       <c r="M12" t="n">
-        <v>1285.356208523748</v>
+        <v>704.8185108332094</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.876864161366</v>
+        <v>1457.019052491424</v>
       </c>
       <c r="O12" t="n">
-        <v>1878.630278245328</v>
+        <v>2078.719915553604</v>
       </c>
       <c r="P12" t="n">
-        <v>2360.596963291599</v>
+        <v>2560.686600599875</v>
       </c>
       <c r="Q12" t="n">
         <v>2630.081159113204</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.911182939981</v>
+        <v>87.97500001207413</v>
       </c>
       <c r="C13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="D13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="E13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="F13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="G13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="H13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="I13" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="J13" t="n">
         <v>88.45889492388901</v>
       </c>
       <c r="K13" t="n">
-        <v>219.0909196242321</v>
+        <v>219.0909196242322</v>
       </c>
       <c r="L13" t="n">
-        <v>441.7813708116553</v>
+        <v>441.7813708116554</v>
       </c>
       <c r="M13" t="n">
-        <v>686.9663511780698</v>
+        <v>686.96635117807</v>
       </c>
       <c r="N13" t="n">
-        <v>931.7559971486012</v>
+        <v>931.7559971486014</v>
       </c>
       <c r="O13" t="n">
         <v>1141.842560040204</v>
@@ -5218,31 +5218,31 @@
         <v>1298.087225940336</v>
       </c>
       <c r="Q13" t="n">
-        <v>1322.827853655664</v>
+        <v>1322.827853655665</v>
       </c>
       <c r="R13" t="n">
-        <v>1322.827853655664</v>
+        <v>1204.031729828338</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.827853655664</v>
+        <v>1204.031729828338</v>
       </c>
       <c r="T13" t="n">
-        <v>1210.650856911086</v>
+        <v>979.5126147426113</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.650856911086</v>
+        <v>752.2975039462181</v>
       </c>
       <c r="V13" t="n">
-        <v>955.9663687051986</v>
+        <v>497.6130157403312</v>
       </c>
       <c r="W13" t="n">
-        <v>666.5491986682381</v>
+        <v>497.6130157403312</v>
       </c>
       <c r="X13" t="n">
-        <v>438.5596477702207</v>
+        <v>269.6234648423139</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.5596477702207</v>
+        <v>269.6234648423139</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2172.327310620818</v>
+        <v>2172.327310620817</v>
       </c>
       <c r="C14" t="n">
-        <v>1830.432325480663</v>
+        <v>1830.432325480662</v>
       </c>
       <c r="D14" t="n">
         <v>1575.57514213273</v>
       </c>
       <c r="E14" t="n">
-        <v>1216.854421334742</v>
+        <v>1216.854421334743</v>
       </c>
       <c r="F14" t="n">
-        <v>832.9360483453918</v>
+        <v>832.9360483453919</v>
       </c>
       <c r="G14" t="n">
-        <v>443.4949920330237</v>
+        <v>443.4949920330235</v>
       </c>
       <c r="H14" t="n">
         <v>158.2710755835554</v>
@@ -5276,10 +5276,10 @@
         <v>87.97500001207416</v>
       </c>
       <c r="J14" t="n">
-        <v>324.7949852489814</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K14" t="n">
-        <v>800.471558118636</v>
+        <v>800.4715581186363</v>
       </c>
       <c r="L14" t="n">
         <v>1442.867036505493</v>
@@ -5291,7 +5291,7 @@
         <v>2902.860362498392</v>
       </c>
       <c r="O14" t="n">
-        <v>3545.667187997843</v>
+        <v>3545.667187997844</v>
       </c>
       <c r="P14" t="n">
         <v>4056.613558792577</v>
@@ -5309,19 +5309,19 @@
         <v>4097.603960496748</v>
       </c>
       <c r="U14" t="n">
-        <v>3871.026124534232</v>
+        <v>3871.026124534231</v>
       </c>
       <c r="V14" t="n">
-        <v>3567.030768990918</v>
+        <v>3567.030768990917</v>
       </c>
       <c r="W14" t="n">
-        <v>3241.329645521061</v>
+        <v>3241.32964552106</v>
       </c>
       <c r="X14" t="n">
-        <v>2894.931419060238</v>
+        <v>2894.931419060237</v>
       </c>
       <c r="Y14" t="n">
-        <v>2531.859618884683</v>
+        <v>2531.859618884682</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>87.97500001207416</v>
       </c>
       <c r="J15" t="n">
-        <v>235.3299811568569</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="K15" t="n">
-        <v>613.80395740418</v>
+        <v>466.4489762593973</v>
       </c>
       <c r="L15" t="n">
-        <v>1184.113321345172</v>
+        <v>466.4489762593973</v>
       </c>
       <c r="M15" t="n">
-        <v>1504.448640874874</v>
+        <v>1112.498396853806</v>
       </c>
       <c r="N15" t="n">
-        <v>1848.969296512492</v>
+        <v>1457.019052491424</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.722710596454</v>
+        <v>2078.719915553604</v>
       </c>
       <c r="P15" t="n">
         <v>2560.686600599875</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>582.3689639814691</v>
+        <v>352.8927587518032</v>
       </c>
       <c r="C16" t="n">
-        <v>473.1491762782879</v>
+        <v>211.0241076241531</v>
       </c>
       <c r="D16" t="n">
-        <v>350.1000686662089</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="E16" t="n">
-        <v>229.2545068840725</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="F16" t="n">
-        <v>229.2545068840725</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="G16" t="n">
         <v>87.97500001207416</v>
@@ -5458,28 +5458,28 @@
         <v>1535.058956995118</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.058956995118</v>
+        <v>1443.330364968049</v>
       </c>
       <c r="S16" t="n">
-        <v>1359.213919858116</v>
+        <v>1443.330364968049</v>
       </c>
       <c r="T16" t="n">
-        <v>1359.213919858116</v>
+        <v>1443.330364968049</v>
       </c>
       <c r="U16" t="n">
-        <v>1359.213919858116</v>
+        <v>1181.259891600478</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.596963452486</v>
+        <v>1164.470396459524</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.596963452486</v>
+        <v>902.1207582228201</v>
       </c>
       <c r="X16" t="n">
-        <v>930.6749443547253</v>
+        <v>701.1987391250595</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.949897011452</v>
+        <v>507.4736917817861</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>1196.496825745793</v>
       </c>
       <c r="F17" t="n">
-        <v>817.6678516536796</v>
+        <v>817.6678516536799</v>
       </c>
       <c r="G17" t="n">
-        <v>433.3161942385486</v>
+        <v>433.316194238549</v>
       </c>
       <c r="H17" t="n">
-        <v>153.181676686318</v>
+        <v>153.1816766863176</v>
       </c>
       <c r="I17" t="n">
         <v>87.97500001207416</v>
@@ -5549,7 +5549,7 @@
         <v>3886.294321225944</v>
       </c>
       <c r="V17" t="n">
-        <v>3587.388364579868</v>
+        <v>3587.388364579867</v>
       </c>
       <c r="W17" t="n">
         <v>3266.776640007248</v>
@@ -5558,7 +5558,7 @@
         <v>2925.467812443662</v>
       </c>
       <c r="Y17" t="n">
-        <v>2567.485411165344</v>
+        <v>2567.485411165345</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>87.97500001207416</v>
       </c>
       <c r="K18" t="n">
-        <v>87.97500001207416</v>
+        <v>466.4489762593973</v>
       </c>
       <c r="L18" t="n">
-        <v>87.97500001207416</v>
+        <v>867.1760663520931</v>
       </c>
       <c r="M18" t="n">
-        <v>504.7288735249333</v>
+        <v>1584.679415956668</v>
       </c>
       <c r="N18" t="n">
-        <v>1256.929415183148</v>
+        <v>1929.200071594286</v>
       </c>
       <c r="O18" t="n">
-        <v>1878.630278245328</v>
+        <v>2177.953485678248</v>
       </c>
       <c r="P18" t="n">
         <v>2360.596963291599</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.60895327582816</v>
+        <v>224.754252242487</v>
       </c>
       <c r="C19" t="n">
-        <v>90.60895327582816</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="D19" t="n">
-        <v>90.60895327582816</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="E19" t="n">
-        <v>90.60895327582816</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="F19" t="n">
-        <v>90.60895327582816</v>
+        <v>87.97500001207416</v>
       </c>
       <c r="G19" t="n">
         <v>87.97500001207416</v>
@@ -5680,7 +5680,7 @@
         <v>536.3323941414977</v>
       </c>
       <c r="M19" t="n">
-        <v>813.0343822845264</v>
+        <v>813.0343822845266</v>
       </c>
       <c r="N19" t="n">
         <v>1089.341036031672</v>
@@ -5692,31 +5692,31 @@
         <v>1518.706280376635</v>
       </c>
       <c r="Q19" t="n">
-        <v>1574.963915868577</v>
+        <v>1574.963915868578</v>
       </c>
       <c r="R19" t="n">
-        <v>1574.963915868577</v>
+        <v>1574.963915868578</v>
       </c>
       <c r="S19" t="n">
-        <v>1404.208277628813</v>
+        <v>1574.963915868578</v>
       </c>
       <c r="T19" t="n">
-        <v>1211.84609324058</v>
+        <v>1382.601731480345</v>
       </c>
       <c r="U19" t="n">
-        <v>954.8650187702463</v>
+        <v>1125.620657010011</v>
       </c>
       <c r="V19" t="n">
-        <v>732.3374612618536</v>
+        <v>903.0930995016186</v>
       </c>
       <c r="W19" t="n">
-        <v>475.0772219223872</v>
+        <v>758.7140550217916</v>
       </c>
       <c r="X19" t="n">
-        <v>279.2446017218641</v>
+        <v>562.8814348212685</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.60895327582816</v>
+        <v>374.2457863752326</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2213.042501798717</v>
       </c>
       <c r="C20" t="n">
-        <v>1876.2369155558</v>
+        <v>1876.236915555799</v>
       </c>
       <c r="D20" t="n">
         <v>1550.128147646543</v>
@@ -5738,7 +5738,7 @@
         <v>1196.496825745793</v>
       </c>
       <c r="F20" t="n">
-        <v>817.6678516536799</v>
+        <v>817.6678516536798</v>
       </c>
       <c r="G20" t="n">
         <v>433.3161942385489</v>
@@ -5750,16 +5750,16 @@
         <v>87.97500001207415</v>
       </c>
       <c r="J20" t="n">
-        <v>324.794985248982</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K20" t="n">
-        <v>800.4715581186363</v>
+        <v>800.4715581186364</v>
       </c>
       <c r="L20" t="n">
-        <v>1442.867036505492</v>
+        <v>1442.867036505493</v>
       </c>
       <c r="M20" t="n">
-        <v>2174.262328041206</v>
+        <v>2174.262328041207</v>
       </c>
       <c r="N20" t="n">
         <v>2902.86036249839</v>
@@ -5777,7 +5777,7 @@
         <v>4398.750000603707</v>
       </c>
       <c r="S20" t="n">
-        <v>4287.890269118994</v>
+        <v>4287.890269118995</v>
       </c>
       <c r="T20" t="n">
         <v>4107.782758291223</v>
@@ -5789,13 +5789,13 @@
         <v>3587.388364579868</v>
       </c>
       <c r="W20" t="n">
-        <v>3266.776640007248</v>
+        <v>3266.776640007247</v>
       </c>
       <c r="X20" t="n">
         <v>2925.467812443662</v>
       </c>
       <c r="Y20" t="n">
-        <v>2567.485411165345</v>
+        <v>2567.485411165344</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>87.97500001207415</v>
       </c>
       <c r="J21" t="n">
-        <v>235.3299811568568</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="K21" t="n">
-        <v>613.80395740418</v>
+        <v>466.4489762593973</v>
       </c>
       <c r="L21" t="n">
-        <v>1184.113321345172</v>
+        <v>1036.758340200389</v>
       </c>
       <c r="M21" t="n">
-        <v>1877.880617454989</v>
+        <v>1625.842581328309</v>
       </c>
       <c r="N21" t="n">
-        <v>2630.081159113204</v>
+        <v>2378.043122986524</v>
       </c>
       <c r="O21" t="n">
-        <v>2630.081159113204</v>
+        <v>2378.043122986524</v>
       </c>
       <c r="P21" t="n">
-        <v>2630.081159113204</v>
+        <v>2560.686600599875</v>
       </c>
       <c r="Q21" t="n">
         <v>2630.081159113204</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.4872690429032</v>
+        <v>458.4701238422273</v>
       </c>
       <c r="C22" t="n">
-        <v>202.7080168124904</v>
+        <v>321.6908716118146</v>
       </c>
       <c r="D22" t="n">
-        <v>202.7080168124904</v>
+        <v>203.731162896973</v>
       </c>
       <c r="E22" t="n">
-        <v>202.7080168124904</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="F22" t="n">
         <v>87.97500001207415</v>
@@ -5908,13 +5908,13 @@
         <v>87.97500001207415</v>
       </c>
       <c r="J22" t="n">
-        <v>119.975902700503</v>
+        <v>119.9759027005031</v>
       </c>
       <c r="K22" t="n">
-        <v>282.1249351774603</v>
+        <v>282.1249351774604</v>
       </c>
       <c r="L22" t="n">
-        <v>536.3323941414975</v>
+        <v>536.3323941414977</v>
       </c>
       <c r="M22" t="n">
         <v>813.0343822845261</v>
@@ -5932,28 +5932,28 @@
         <v>1574.963915868577</v>
       </c>
       <c r="R22" t="n">
-        <v>1493.825133789672</v>
+        <v>1488.324722738745</v>
       </c>
       <c r="S22" t="n">
-        <v>1323.069495549908</v>
+        <v>1317.56908449898</v>
       </c>
       <c r="T22" t="n">
-        <v>1130.707311161675</v>
+        <v>1125.206900110747</v>
       </c>
       <c r="U22" t="n">
-        <v>1130.707311161675</v>
+        <v>868.2258256404139</v>
       </c>
       <c r="V22" t="n">
-        <v>1130.707311161675</v>
+        <v>645.6982681320216</v>
       </c>
       <c r="W22" t="n">
-        <v>873.447071822208</v>
+        <v>645.6982681320216</v>
       </c>
       <c r="X22" t="n">
-        <v>677.6144516216848</v>
+        <v>458.4701238422273</v>
       </c>
       <c r="Y22" t="n">
-        <v>488.9788031756487</v>
+        <v>458.4701238422273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2213.042501798715</v>
+        <v>2213.042501798717</v>
       </c>
       <c r="C23" t="n">
-        <v>1876.236915555798</v>
+        <v>1876.2369155558</v>
       </c>
       <c r="D23" t="n">
-        <v>1550.128147646541</v>
+        <v>1550.128147646543</v>
       </c>
       <c r="E23" t="n">
-        <v>1196.496825745791</v>
+        <v>1196.496825745793</v>
       </c>
       <c r="F23" t="n">
-        <v>817.6678516536779</v>
+        <v>817.6678516536799</v>
       </c>
       <c r="G23" t="n">
-        <v>433.3161942385469</v>
+        <v>433.316194238549</v>
       </c>
       <c r="H23" t="n">
-        <v>153.181676686316</v>
+        <v>153.1816766863181</v>
       </c>
       <c r="I23" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J23" t="n">
-        <v>324.794985248982</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K23" t="n">
-        <v>800.4715581186363</v>
+        <v>800.4715581186364</v>
       </c>
       <c r="L23" t="n">
         <v>1442.867036505493</v>
@@ -5999,40 +5999,40 @@
         <v>2174.262328041207</v>
       </c>
       <c r="N23" t="n">
-        <v>2902.860362498391</v>
+        <v>2902.860362498392</v>
       </c>
       <c r="O23" t="n">
-        <v>3545.667187997842</v>
+        <v>3545.667187997844</v>
       </c>
       <c r="P23" t="n">
-        <v>4056.613558792576</v>
+        <v>4056.613558792577</v>
       </c>
       <c r="Q23" t="n">
-        <v>4363.091244613589</v>
+        <v>4363.091244613591</v>
       </c>
       <c r="R23" t="n">
-        <v>4398.750000603707</v>
+        <v>4398.750000603709</v>
       </c>
       <c r="S23" t="n">
-        <v>4287.890269118994</v>
+        <v>4287.890269118996</v>
       </c>
       <c r="T23" t="n">
-        <v>4107.782758291221</v>
+        <v>4107.782758291223</v>
       </c>
       <c r="U23" t="n">
-        <v>3886.294321225942</v>
+        <v>3886.294321225944</v>
       </c>
       <c r="V23" t="n">
-        <v>3587.388364579866</v>
+        <v>3587.388364579867</v>
       </c>
       <c r="W23" t="n">
-        <v>3266.776640007246</v>
+        <v>3266.776640007248</v>
       </c>
       <c r="X23" t="n">
-        <v>2925.46781244366</v>
+        <v>2925.467812443662</v>
       </c>
       <c r="Y23" t="n">
-        <v>2567.485411165343</v>
+        <v>2567.485411165345</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I24" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J24" t="n">
-        <v>235.3299811568568</v>
+        <v>235.3299811568569</v>
       </c>
       <c r="K24" t="n">
         <v>613.80395740418</v>
       </c>
       <c r="L24" t="n">
-        <v>1184.113321345172</v>
+        <v>843.7670632725292</v>
       </c>
       <c r="M24" t="n">
-        <v>1901.616670949746</v>
+        <v>1164.102382802231</v>
       </c>
       <c r="N24" t="n">
-        <v>2630.081159113204</v>
+        <v>1829.966501469641</v>
       </c>
       <c r="O24" t="n">
-        <v>2630.081159113204</v>
+        <v>2078.719915553604</v>
       </c>
       <c r="P24" t="n">
-        <v>2630.081159113204</v>
+        <v>2560.686600599875</v>
       </c>
       <c r="Q24" t="n">
         <v>2630.081159113204</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>224.7542522424869</v>
+        <v>111.738465352716</v>
       </c>
       <c r="C25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="E25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="F25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="G25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="H25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="I25" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J25" t="n">
-        <v>119.975902700503</v>
+        <v>119.9759027005031</v>
       </c>
       <c r="K25" t="n">
         <v>282.1249351774603</v>
@@ -6154,7 +6154,7 @@
         <v>536.3323941414976</v>
       </c>
       <c r="M25" t="n">
-        <v>813.0343822845263</v>
+        <v>813.0343822845261</v>
       </c>
       <c r="N25" t="n">
         <v>1089.341036031672</v>
@@ -6169,28 +6169,28 @@
         <v>1574.963915868577</v>
       </c>
       <c r="R25" t="n">
-        <v>1520.4735663892</v>
+        <v>1488.324722738745</v>
       </c>
       <c r="S25" t="n">
-        <v>1349.717928149436</v>
+        <v>1317.56908449898</v>
       </c>
       <c r="T25" t="n">
-        <v>1157.355743761203</v>
+        <v>1125.206900110747</v>
       </c>
       <c r="U25" t="n">
-        <v>900.3746692908693</v>
+        <v>868.2258256404136</v>
       </c>
       <c r="V25" t="n">
-        <v>677.8471117824765</v>
+        <v>645.6982681320208</v>
       </c>
       <c r="W25" t="n">
-        <v>420.5868724430101</v>
+        <v>645.6982681320208</v>
       </c>
       <c r="X25" t="n">
-        <v>224.7542522424869</v>
+        <v>449.8656479314976</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.7542522424869</v>
+        <v>261.2299994854616</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2213.042501798717</v>
       </c>
       <c r="C26" t="n">
-        <v>1876.236915555799</v>
+        <v>1876.2369155558</v>
       </c>
       <c r="D26" t="n">
-        <v>1550.128147646543</v>
+        <v>1550.128147646544</v>
       </c>
       <c r="E26" t="n">
         <v>1196.496825745794</v>
@@ -6218,16 +6218,16 @@
         <v>433.3161942385495</v>
       </c>
       <c r="H26" t="n">
-        <v>153.181676686318</v>
+        <v>153.1816766863185</v>
       </c>
       <c r="I26" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J26" t="n">
-        <v>324.794985248982</v>
+        <v>324.7949852489814</v>
       </c>
       <c r="K26" t="n">
-        <v>800.4715581186363</v>
+        <v>800.4715581186356</v>
       </c>
       <c r="L26" t="n">
         <v>1442.867036505492</v>
@@ -6245,31 +6245,31 @@
         <v>4056.613558792576</v>
       </c>
       <c r="Q26" t="n">
-        <v>4363.091244613589</v>
+        <v>4363.09124461359</v>
       </c>
       <c r="R26" t="n">
-        <v>4398.750000603707</v>
+        <v>4398.750000603709</v>
       </c>
       <c r="S26" t="n">
-        <v>4287.890269118994</v>
+        <v>4287.890269118996</v>
       </c>
       <c r="T26" t="n">
-        <v>4107.782758291222</v>
+        <v>4107.782758291223</v>
       </c>
       <c r="U26" t="n">
-        <v>3886.294321225944</v>
+        <v>3886.294321225945</v>
       </c>
       <c r="V26" t="n">
-        <v>3587.388364579867</v>
+        <v>3587.388364579868</v>
       </c>
       <c r="W26" t="n">
-        <v>3266.776640007247</v>
+        <v>3266.776640007248</v>
       </c>
       <c r="X26" t="n">
-        <v>2925.467812443662</v>
+        <v>2925.467812443663</v>
       </c>
       <c r="Y26" t="n">
-        <v>2567.485411165344</v>
+        <v>2567.485411165345</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I27" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J27" t="n">
-        <v>235.3299811568568</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="K27" t="n">
-        <v>613.80395740418</v>
+        <v>158.6710122121099</v>
       </c>
       <c r="L27" t="n">
-        <v>1184.113321345172</v>
+        <v>728.9803761531018</v>
       </c>
       <c r="M27" t="n">
-        <v>1901.616670949746</v>
+        <v>1446.483725757676</v>
       </c>
       <c r="N27" t="n">
-        <v>2630.081159113204</v>
+        <v>2198.684267415891</v>
       </c>
       <c r="O27" t="n">
-        <v>2630.081159113204</v>
+        <v>2447.437681499853</v>
       </c>
       <c r="P27" t="n">
         <v>2630.081159113204</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.1236061496418</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="C28" t="n">
-        <v>303.3443539192291</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="D28" t="n">
-        <v>303.3443539192291</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="E28" t="n">
-        <v>187.5881910343303</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="F28" t="n">
-        <v>172.5166589634198</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="G28" t="n">
-        <v>172.5166589634198</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="H28" t="n">
-        <v>172.5166589634198</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="I28" t="n">
-        <v>87.97500001207415</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="J28" t="n">
         <v>119.9759027005032</v>
       </c>
       <c r="K28" t="n">
-        <v>282.1249351774604</v>
+        <v>282.1249351774605</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3323941414978</v>
+        <v>536.332394141498</v>
       </c>
       <c r="M28" t="n">
-        <v>813.0343822845266</v>
+        <v>813.0343822845268</v>
       </c>
       <c r="N28" t="n">
         <v>1089.341036031672</v>
@@ -6409,25 +6409,25 @@
         <v>1488.324722738746</v>
       </c>
       <c r="S28" t="n">
-        <v>1488.324722738746</v>
+        <v>1317.569084498981</v>
       </c>
       <c r="T28" t="n">
-        <v>1488.324722738746</v>
+        <v>1125.206900110749</v>
       </c>
       <c r="U28" t="n">
-        <v>1231.343648268413</v>
+        <v>1101.722599639237</v>
       </c>
       <c r="V28" t="n">
-        <v>1231.343648268413</v>
+        <v>879.1950421308449</v>
       </c>
       <c r="W28" t="n">
-        <v>974.0834089289463</v>
+        <v>621.9348027913785</v>
       </c>
       <c r="X28" t="n">
-        <v>778.2507887284231</v>
+        <v>426.1021825908554</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6151402823872</v>
+        <v>237.4665341448196</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2213.042501798718</v>
+        <v>2213.042501798717</v>
       </c>
       <c r="C29" t="n">
-        <v>1876.236915555801</v>
+        <v>1876.236915555799</v>
       </c>
       <c r="D29" t="n">
-        <v>1550.128147646544</v>
+        <v>1550.128147646543</v>
       </c>
       <c r="E29" t="n">
-        <v>1196.496825745794</v>
+        <v>1196.496825745793</v>
       </c>
       <c r="F29" t="n">
-        <v>817.6678516536809</v>
+        <v>817.6678516536797</v>
       </c>
       <c r="G29" t="n">
-        <v>433.31619423855</v>
+        <v>433.3161942385487</v>
       </c>
       <c r="H29" t="n">
-        <v>153.181676686318</v>
+        <v>153.1816766863179</v>
       </c>
       <c r="I29" t="n">
         <v>87.97500001207418</v>
       </c>
       <c r="J29" t="n">
-        <v>324.7949852489814</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K29" t="n">
-        <v>800.4715581186356</v>
+        <v>800.4715581186364</v>
       </c>
       <c r="L29" t="n">
-        <v>1442.867036505492</v>
+        <v>1442.867036505493</v>
       </c>
       <c r="M29" t="n">
-        <v>2174.262328041206</v>
+        <v>2174.262328041207</v>
       </c>
       <c r="N29" t="n">
         <v>2902.860362498391</v>
@@ -6506,7 +6506,7 @@
         <v>2925.467812443663</v>
       </c>
       <c r="Y29" t="n">
-        <v>2567.485411165346</v>
+        <v>2567.485411165344</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>235.3299811568569</v>
       </c>
       <c r="K30" t="n">
-        <v>613.80395740418</v>
+        <v>590.5714793293621</v>
       </c>
       <c r="L30" t="n">
-        <v>1184.113321345172</v>
+        <v>1160.880843270354</v>
       </c>
       <c r="M30" t="n">
-        <v>1901.616670949746</v>
+        <v>1481.216162800056</v>
       </c>
       <c r="N30" t="n">
-        <v>2630.081159113204</v>
+        <v>1825.736818437674</v>
       </c>
       <c r="O30" t="n">
-        <v>2630.081159113204</v>
+        <v>2447.437681499853</v>
       </c>
       <c r="P30" t="n">
         <v>2630.081159113204</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>224.7542522424869</v>
+        <v>224.1651079868351</v>
       </c>
       <c r="C31" t="n">
-        <v>87.97500001207418</v>
+        <v>224.1651079868351</v>
       </c>
       <c r="D31" t="n">
-        <v>87.97500001207418</v>
+        <v>224.1651079868351</v>
       </c>
       <c r="E31" t="n">
-        <v>87.97500001207418</v>
+        <v>224.1651079868351</v>
       </c>
       <c r="F31" t="n">
-        <v>87.97500001207418</v>
+        <v>224.1651079868351</v>
       </c>
       <c r="G31" t="n">
         <v>87.97500001207418</v>
@@ -6625,10 +6625,10 @@
         <v>282.1249351774605</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3323941414976</v>
+        <v>536.3323941414978</v>
       </c>
       <c r="M31" t="n">
-        <v>813.0343822845264</v>
+        <v>813.0343822845266</v>
       </c>
       <c r="N31" t="n">
         <v>1089.341036031672</v>
@@ -6640,31 +6640,31 @@
         <v>1518.706280376635</v>
       </c>
       <c r="Q31" t="n">
-        <v>1574.963915868577</v>
+        <v>1574.963915868578</v>
       </c>
       <c r="R31" t="n">
-        <v>1574.963915868577</v>
+        <v>1537.764432339819</v>
       </c>
       <c r="S31" t="n">
-        <v>1404.208277628813</v>
+        <v>1537.764432339819</v>
       </c>
       <c r="T31" t="n">
-        <v>1211.84609324058</v>
+        <v>1345.402247951587</v>
       </c>
       <c r="U31" t="n">
-        <v>1211.84609324058</v>
+        <v>1088.421173481253</v>
       </c>
       <c r="V31" t="n">
-        <v>989.3185357321878</v>
+        <v>865.8936159728605</v>
       </c>
       <c r="W31" t="n">
-        <v>758.7140550217913</v>
+        <v>608.6333766333942</v>
       </c>
       <c r="X31" t="n">
-        <v>562.8814348212682</v>
+        <v>412.800756432871</v>
       </c>
       <c r="Y31" t="n">
-        <v>374.2457863752323</v>
+        <v>224.1651079868351</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2208.380509544403</v>
+        <v>2131.793673832146</v>
       </c>
       <c r="C32" t="n">
-        <v>1916.004828316249</v>
+        <v>1839.417992603992</v>
       </c>
       <c r="D32" t="n">
         <v>1557.739129709499</v>
@@ -6686,64 +6686,64 @@
         <v>1171.950877111255</v>
       </c>
       <c r="F32" t="n">
-        <v>760.964972321647</v>
+        <v>760.9649723216471</v>
       </c>
       <c r="G32" t="n">
-        <v>344.4563842090218</v>
+        <v>421.0432199212796</v>
       </c>
       <c r="H32" t="n">
-        <v>108.7517716715545</v>
+        <v>185.3386073838122</v>
       </c>
       <c r="I32" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J32" t="n">
-        <v>324.7949852489824</v>
+        <v>324.794985248982</v>
       </c>
       <c r="K32" t="n">
-        <v>800.4715581186365</v>
+        <v>800.4715581186363</v>
       </c>
       <c r="L32" t="n">
-        <v>1442.867036505493</v>
+        <v>1442.867036505492</v>
       </c>
       <c r="M32" t="n">
-        <v>2174.262328041207</v>
+        <v>2174.262328041205</v>
       </c>
       <c r="N32" t="n">
-        <v>2902.860362498392</v>
+        <v>2902.86036249839</v>
       </c>
       <c r="O32" t="n">
-        <v>3545.667187997843</v>
+        <v>3545.667187997842</v>
       </c>
       <c r="P32" t="n">
-        <v>4056.613558792577</v>
+        <v>4056.613558792576</v>
       </c>
       <c r="Q32" t="n">
-        <v>4363.091244613591</v>
+        <v>4363.091244613589</v>
       </c>
       <c r="R32" t="n">
-        <v>4398.750000603709</v>
+        <v>4398.750000603707</v>
       </c>
       <c r="S32" t="n">
-        <v>4332.32017413376</v>
+        <v>4255.7333384215</v>
       </c>
       <c r="T32" t="n">
-        <v>4120.055732608494</v>
+        <v>4120.055732608491</v>
       </c>
       <c r="U32" t="n">
-        <v>3889.243311034586</v>
+        <v>3942.997200557975</v>
       </c>
       <c r="V32" t="n">
-        <v>3634.767259403273</v>
+        <v>3611.934313214404</v>
       </c>
       <c r="W32" t="n">
-        <v>3281.998604133159</v>
+        <v>3259.16565794429</v>
       </c>
       <c r="X32" t="n">
-        <v>2908.532845872079</v>
+        <v>2885.69989968321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2518.393513896267</v>
+        <v>2495.560567707399</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I33" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J33" t="n">
-        <v>235.3299811568569</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="K33" t="n">
-        <v>613.80395740418</v>
+        <v>466.4489762593973</v>
       </c>
       <c r="L33" t="n">
-        <v>1184.113321345172</v>
+        <v>1036.758340200389</v>
       </c>
       <c r="M33" t="n">
-        <v>1901.616670949746</v>
+        <v>1357.093659730091</v>
       </c>
       <c r="N33" t="n">
-        <v>2630.081159113204</v>
+        <v>1701.614315367709</v>
       </c>
       <c r="O33" t="n">
-        <v>2630.081159113204</v>
+        <v>1950.367729451671</v>
       </c>
       <c r="P33" t="n">
-        <v>2630.081159113204</v>
+        <v>2360.596963291599</v>
       </c>
       <c r="Q33" t="n">
         <v>2630.081159113204</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>602.7133703858789</v>
+        <v>602.7133703858788</v>
       </c>
       <c r="C34" t="n">
-        <v>510.3640231702297</v>
+        <v>510.3640231702295</v>
       </c>
       <c r="D34" t="n">
-        <v>436.8342194701517</v>
+        <v>436.8342194701515</v>
       </c>
       <c r="E34" t="n">
-        <v>365.5079616000162</v>
+        <v>365.507961600016</v>
       </c>
       <c r="F34" t="n">
-        <v>295.2048498143636</v>
+        <v>295.2048498143633</v>
       </c>
       <c r="G34" t="n">
         <v>203.4446468543653</v>
       </c>
       <c r="H34" t="n">
-        <v>128.0867539486564</v>
+        <v>128.0867539486563</v>
       </c>
       <c r="I34" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J34" t="n">
         <v>163.5216526054728</v>
       </c>
       <c r="K34" t="n">
-        <v>369.2164349873998</v>
+        <v>369.2164349873997</v>
       </c>
       <c r="L34" t="n">
-        <v>666.9696438564068</v>
+        <v>666.9696438564067</v>
       </c>
       <c r="M34" t="n">
-        <v>987.2173819044053</v>
+        <v>987.2173819044051</v>
       </c>
       <c r="N34" t="n">
         <v>1307.06978555652</v>
@@ -6877,7 +6877,7 @@
         <v>1823.526529711422</v>
       </c>
       <c r="Q34" t="n">
-        <v>1923.329915108334</v>
+        <v>1923.329915108335</v>
       </c>
       <c r="R34" t="n">
         <v>1881.120626993266</v>
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2284.967345256661</v>
+        <v>2131.793673832146</v>
       </c>
       <c r="C35" t="n">
-        <v>1992.591664028507</v>
+        <v>1839.417992603992</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.912801134014</v>
+        <v>1557.739129709499</v>
       </c>
       <c r="E35" t="n">
-        <v>1325.12454853577</v>
+        <v>1171.950877111255</v>
       </c>
       <c r="F35" t="n">
-        <v>914.1386437461624</v>
+        <v>837.5518080339048</v>
       </c>
       <c r="G35" t="n">
-        <v>497.6300556335373</v>
+        <v>421.0432199212796</v>
       </c>
       <c r="H35" t="n">
-        <v>185.3386073838122</v>
+        <v>108.7517716715546</v>
       </c>
       <c r="I35" t="n">
         <v>87.97500001207418</v>
       </c>
       <c r="J35" t="n">
-        <v>324.7949852489824</v>
+        <v>324.7949852489819</v>
       </c>
       <c r="K35" t="n">
-        <v>800.4715581186369</v>
+        <v>800.4715581186364</v>
       </c>
       <c r="L35" t="n">
-        <v>1442.867036505494</v>
+        <v>1442.867036505493</v>
       </c>
       <c r="M35" t="n">
-        <v>2174.262328041208</v>
+        <v>2174.262328041207</v>
       </c>
       <c r="N35" t="n">
         <v>2902.860362498392</v>
@@ -6962,25 +6962,25 @@
         <v>4398.750000603709</v>
       </c>
       <c r="S35" t="n">
-        <v>4332.32017413376</v>
+        <v>4255.733338421502</v>
       </c>
       <c r="T35" t="n">
-        <v>4196.642568320751</v>
+        <v>4043.468896896235</v>
       </c>
       <c r="U35" t="n">
-        <v>3942.997200557978</v>
+        <v>3866.410364845719</v>
       </c>
       <c r="V35" t="n">
-        <v>3634.767259403274</v>
+        <v>3535.347477502149</v>
       </c>
       <c r="W35" t="n">
-        <v>3281.998604133159</v>
+        <v>3205.411768420902</v>
       </c>
       <c r="X35" t="n">
-        <v>2985.119681584337</v>
+        <v>2831.946010159822</v>
       </c>
       <c r="Y35" t="n">
-        <v>2594.980349608526</v>
+        <v>2441.80667818401</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>87.97500001207418</v>
       </c>
       <c r="J36" t="n">
-        <v>235.3299811568569</v>
+        <v>87.97500001207418</v>
       </c>
       <c r="K36" t="n">
-        <v>613.80395740418</v>
+        <v>213.3325600699116</v>
       </c>
       <c r="L36" t="n">
-        <v>1184.113321345172</v>
+        <v>767.9424962274488</v>
       </c>
       <c r="M36" t="n">
-        <v>1901.616670949746</v>
+        <v>1485.445845832023</v>
       </c>
       <c r="N36" t="n">
-        <v>2630.081159113204</v>
+        <v>1829.966501469641</v>
       </c>
       <c r="O36" t="n">
-        <v>2630.081159113204</v>
+        <v>2078.719915553604</v>
       </c>
       <c r="P36" t="n">
-        <v>2630.081159113204</v>
+        <v>2560.686600599875</v>
       </c>
       <c r="Q36" t="n">
         <v>2630.081159113204</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>602.7133703858782</v>
+        <v>602.7133703858785</v>
       </c>
       <c r="C37" t="n">
-        <v>510.364023170229</v>
+        <v>510.3640231702293</v>
       </c>
       <c r="D37" t="n">
-        <v>436.8342194701509</v>
+        <v>436.8342194701512</v>
       </c>
       <c r="E37" t="n">
-        <v>365.5079616000154</v>
+        <v>365.5079616000157</v>
       </c>
       <c r="F37" t="n">
-        <v>295.2048498143627</v>
+        <v>295.204849814363</v>
       </c>
       <c r="G37" t="n">
-        <v>203.4446468543652</v>
+        <v>203.4446468543653</v>
       </c>
       <c r="H37" t="n">
         <v>128.0867539486564</v>
@@ -7093,16 +7093,16 @@
         <v>87.97500001207418</v>
       </c>
       <c r="J37" t="n">
-        <v>163.5216526054727</v>
+        <v>163.5216526054728</v>
       </c>
       <c r="K37" t="n">
         <v>369.2164349873997</v>
       </c>
       <c r="L37" t="n">
-        <v>666.9696438564067</v>
+        <v>666.9696438564065</v>
       </c>
       <c r="M37" t="n">
-        <v>987.217381904405</v>
+        <v>987.2173819044049</v>
       </c>
       <c r="N37" t="n">
         <v>1307.06978555652</v>
@@ -7117,10 +7117,10 @@
         <v>1923.329915108334</v>
       </c>
       <c r="R37" t="n">
-        <v>1881.120626993265</v>
+        <v>1881.120626993266</v>
       </c>
       <c r="S37" t="n">
-        <v>1754.794893768264</v>
+        <v>1754.794893768265</v>
       </c>
       <c r="T37" t="n">
         <v>1606.862614394795</v>
@@ -7129,16 +7129,16 @@
         <v>1394.311444939225</v>
       </c>
       <c r="V37" t="n">
-        <v>1216.213792445595</v>
+        <v>1216.213792445596</v>
       </c>
       <c r="W37" t="n">
-        <v>1003.383458120892</v>
+        <v>1003.383458120893</v>
       </c>
       <c r="X37" t="n">
-        <v>851.9807429351328</v>
+        <v>851.9807429351331</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.7749995038603</v>
+        <v>707.7749995038606</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2262.134399067795</v>
+        <v>2131.793673832145</v>
       </c>
       <c r="C38" t="n">
-        <v>1969.758717839641</v>
+        <v>1839.417992603991</v>
       </c>
       <c r="D38" t="n">
-        <v>1611.49301923289</v>
+        <v>1481.152293997241</v>
       </c>
       <c r="E38" t="n">
-        <v>1225.704766634646</v>
+        <v>1095.364041398997</v>
       </c>
       <c r="F38" t="n">
-        <v>891.3056975572961</v>
+        <v>684.3781366093892</v>
       </c>
       <c r="G38" t="n">
-        <v>474.7971094446709</v>
+        <v>344.4563842090218</v>
       </c>
       <c r="H38" t="n">
-        <v>162.5056611949459</v>
+        <v>108.7517716715545</v>
       </c>
       <c r="I38" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J38" t="n">
         <v>324.7949852489819</v>
       </c>
       <c r="K38" t="n">
-        <v>800.4715581186363</v>
+        <v>800.4715581186362</v>
       </c>
       <c r="L38" t="n">
         <v>1442.867036505493</v>
@@ -7193,31 +7193,31 @@
         <v>4056.613558792576</v>
       </c>
       <c r="Q38" t="n">
-        <v>4363.091244613591</v>
+        <v>4363.091244613589</v>
       </c>
       <c r="R38" t="n">
-        <v>4398.750000603709</v>
+        <v>4398.750000603707</v>
       </c>
       <c r="S38" t="n">
-        <v>4332.32017413376</v>
+        <v>4332.320174133758</v>
       </c>
       <c r="T38" t="n">
-        <v>4120.055732608494</v>
+        <v>4120.055732608492</v>
       </c>
       <c r="U38" t="n">
-        <v>3942.997200557978</v>
+        <v>3942.997200557976</v>
       </c>
       <c r="V38" t="n">
-        <v>3611.934313214407</v>
+        <v>3611.934313214405</v>
       </c>
       <c r="W38" t="n">
-        <v>3259.165657944293</v>
+        <v>3259.165657944291</v>
       </c>
       <c r="X38" t="n">
-        <v>2962.286735395471</v>
+        <v>2908.532845872079</v>
       </c>
       <c r="Y38" t="n">
-        <v>2572.147403419659</v>
+        <v>2518.393513896267</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I39" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J39" t="n">
-        <v>235.3299811568569</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="K39" t="n">
-        <v>613.80395740418</v>
+        <v>466.4489762593972</v>
       </c>
       <c r="L39" t="n">
-        <v>1184.113321345172</v>
+        <v>494.2286173738762</v>
       </c>
       <c r="M39" t="n">
-        <v>1901.616670949746</v>
+        <v>1211.731966978451</v>
       </c>
       <c r="N39" t="n">
-        <v>2630.081159113204</v>
+        <v>1556.252622616068</v>
       </c>
       <c r="O39" t="n">
-        <v>2630.081159113204</v>
+        <v>2177.953485678248</v>
       </c>
       <c r="P39" t="n">
-        <v>2630.081159113204</v>
+        <v>2360.596963291599</v>
       </c>
       <c r="Q39" t="n">
         <v>2630.081159113204</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>602.7133703858781</v>
+        <v>602.7133703858788</v>
       </c>
       <c r="C40" t="n">
-        <v>510.3640231702288</v>
+        <v>510.3640231702296</v>
       </c>
       <c r="D40" t="n">
-        <v>436.8342194701508</v>
+        <v>436.8342194701515</v>
       </c>
       <c r="E40" t="n">
-        <v>365.5079616000153</v>
+        <v>365.5079616000161</v>
       </c>
       <c r="F40" t="n">
-        <v>295.2048498143627</v>
+        <v>295.2048498143635</v>
       </c>
       <c r="G40" t="n">
-        <v>203.4446468543651</v>
+        <v>203.4446468543653</v>
       </c>
       <c r="H40" t="n">
         <v>128.0867539486564</v>
       </c>
       <c r="I40" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J40" t="n">
         <v>163.5216526054728</v>
       </c>
       <c r="K40" t="n">
-        <v>369.2164349873997</v>
+        <v>369.2164349873996</v>
       </c>
       <c r="L40" t="n">
-        <v>666.9696438564067</v>
+        <v>666.9696438564066</v>
       </c>
       <c r="M40" t="n">
         <v>987.2173819044051</v>
@@ -7348,7 +7348,7 @@
         <v>1592.219106129707</v>
       </c>
       <c r="P40" t="n">
-        <v>1823.526529711423</v>
+        <v>1823.526529711422</v>
       </c>
       <c r="Q40" t="n">
         <v>1923.329915108335</v>
@@ -7357,7 +7357,7 @@
         <v>1881.120626993266</v>
       </c>
       <c r="S40" t="n">
-        <v>1754.794893768264</v>
+        <v>1754.794893768265</v>
       </c>
       <c r="T40" t="n">
         <v>1606.862614394795</v>
@@ -7372,10 +7372,10 @@
         <v>1003.383458120893</v>
       </c>
       <c r="X40" t="n">
-        <v>851.9807429351329</v>
+        <v>851.9807429351334</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.7749995038602</v>
+        <v>707.7749995038607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2338.721234780052</v>
+        <v>2338.72123478005</v>
       </c>
       <c r="C41" t="n">
-        <v>1969.75871783964</v>
+        <v>1969.758717839638</v>
       </c>
       <c r="D41" t="n">
-        <v>1611.49301923289</v>
+        <v>1611.493019232888</v>
       </c>
       <c r="E41" t="n">
-        <v>1225.704766634645</v>
+        <v>1302.291602346901</v>
       </c>
       <c r="F41" t="n">
-        <v>814.718861845038</v>
+        <v>891.3056975572938</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2102737324128</v>
+        <v>474.7971094446686</v>
       </c>
       <c r="H41" t="n">
-        <v>108.7517716715546</v>
+        <v>162.5056611949436</v>
       </c>
       <c r="I41" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J41" t="n">
         <v>324.7949852489824</v>
       </c>
       <c r="K41" t="n">
-        <v>800.4715581186368</v>
+        <v>800.4715581186369</v>
       </c>
       <c r="L41" t="n">
-        <v>1442.867036505493</v>
+        <v>1442.867036505494</v>
       </c>
       <c r="M41" t="n">
         <v>2174.262328041207</v>
@@ -7424,37 +7424,37 @@
         <v>2902.860362498392</v>
       </c>
       <c r="O41" t="n">
-        <v>3545.667187997844</v>
+        <v>3545.667187997843</v>
       </c>
       <c r="P41" t="n">
-        <v>4056.613558792577</v>
+        <v>4056.613558792576</v>
       </c>
       <c r="Q41" t="n">
-        <v>4363.091244613591</v>
+        <v>4363.091244613589</v>
       </c>
       <c r="R41" t="n">
-        <v>4398.750000603709</v>
+        <v>4398.750000603707</v>
       </c>
       <c r="S41" t="n">
-        <v>4332.32017413376</v>
+        <v>4332.320174133758</v>
       </c>
       <c r="T41" t="n">
-        <v>4196.642568320751</v>
+        <v>4196.642568320749</v>
       </c>
       <c r="U41" t="n">
-        <v>4019.584036270235</v>
+        <v>3942.997200557976</v>
       </c>
       <c r="V41" t="n">
-        <v>3688.521148926664</v>
+        <v>3688.521148926663</v>
       </c>
       <c r="W41" t="n">
-        <v>3412.339329368808</v>
+        <v>3335.752493656548</v>
       </c>
       <c r="X41" t="n">
-        <v>3038.873571107728</v>
+        <v>2962.286735395468</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.734239131916</v>
+        <v>2648.734239131914</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I42" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J42" t="n">
-        <v>235.3299811568569</v>
+        <v>235.3299811568568</v>
       </c>
       <c r="K42" t="n">
         <v>613.80395740418</v>
       </c>
       <c r="L42" t="n">
-        <v>1184.113321345172</v>
+        <v>867.1760663520931</v>
       </c>
       <c r="M42" t="n">
-        <v>1901.616670949746</v>
+        <v>1584.679415956668</v>
       </c>
       <c r="N42" t="n">
-        <v>2630.081159113204</v>
+        <v>1929.200071594286</v>
       </c>
       <c r="O42" t="n">
-        <v>2630.081159113204</v>
+        <v>2177.953485678248</v>
       </c>
       <c r="P42" t="n">
-        <v>2630.081159113204</v>
+        <v>2360.596963291599</v>
       </c>
       <c r="Q42" t="n">
         <v>2630.081159113204</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>602.7133703858785</v>
+        <v>602.7133703858784</v>
       </c>
       <c r="C43" t="n">
         <v>510.3640231702292</v>
@@ -7552,28 +7552,28 @@
         <v>436.8342194701511</v>
       </c>
       <c r="E43" t="n">
-        <v>365.5079616000157</v>
+        <v>365.5079616000156</v>
       </c>
       <c r="F43" t="n">
-        <v>295.2048498143628</v>
+        <v>295.2048498143629</v>
       </c>
       <c r="G43" t="n">
-        <v>203.4446468543652</v>
+        <v>203.4446468543654</v>
       </c>
       <c r="H43" t="n">
-        <v>128.0867539486565</v>
+        <v>128.0867539486564</v>
       </c>
       <c r="I43" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J43" t="n">
-        <v>163.5216526054728</v>
+        <v>163.5216526054726</v>
       </c>
       <c r="K43" t="n">
-        <v>369.2164349873997</v>
+        <v>369.2164349873996</v>
       </c>
       <c r="L43" t="n">
-        <v>666.9696438564066</v>
+        <v>666.9696438564065</v>
       </c>
       <c r="M43" t="n">
         <v>987.2173819044049</v>
@@ -7594,7 +7594,7 @@
         <v>1881.120626993265</v>
       </c>
       <c r="S43" t="n">
-        <v>1754.794893768264</v>
+        <v>1754.794893768265</v>
       </c>
       <c r="T43" t="n">
         <v>1606.862614394795</v>
@@ -7609,10 +7609,10 @@
         <v>1003.383458120893</v>
       </c>
       <c r="X43" t="n">
-        <v>851.9807429351331</v>
+        <v>851.980742935133</v>
       </c>
       <c r="Y43" t="n">
-        <v>707.7749995038606</v>
+        <v>707.7749995038605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2208.380509544404</v>
+        <v>2185.547563355534</v>
       </c>
       <c r="C44" t="n">
-        <v>1839.417992603992</v>
+        <v>1893.17188212738</v>
       </c>
       <c r="D44" t="n">
-        <v>1481.152293997241</v>
+        <v>1534.90618352063</v>
       </c>
       <c r="E44" t="n">
-        <v>1095.364041398997</v>
+        <v>1149.117930922386</v>
       </c>
       <c r="F44" t="n">
-        <v>684.3781366093893</v>
+        <v>814.7188618450357</v>
       </c>
       <c r="G44" t="n">
-        <v>344.4563842090219</v>
+        <v>398.2102737324105</v>
       </c>
       <c r="H44" t="n">
-        <v>108.7517716715546</v>
+        <v>162.5056611949431</v>
       </c>
       <c r="I44" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J44" t="n">
-        <v>324.7949852489819</v>
+        <v>324.7949852489818</v>
       </c>
       <c r="K44" t="n">
-        <v>800.4715581186362</v>
+        <v>800.471558118636</v>
       </c>
       <c r="L44" t="n">
         <v>1442.867036505493</v>
       </c>
       <c r="M44" t="n">
-        <v>2174.262328041207</v>
+        <v>2174.262328041206</v>
       </c>
       <c r="N44" t="n">
-        <v>2902.860362498392</v>
+        <v>2902.86036249839</v>
       </c>
       <c r="O44" t="n">
-        <v>3545.667187997844</v>
+        <v>3545.667187997842</v>
       </c>
       <c r="P44" t="n">
-        <v>4056.613558792577</v>
+        <v>4056.613558792576</v>
       </c>
       <c r="Q44" t="n">
-        <v>4363.091244613591</v>
+        <v>4363.091244613589</v>
       </c>
       <c r="R44" t="n">
-        <v>4398.750000603709</v>
+        <v>4398.750000603707</v>
       </c>
       <c r="S44" t="n">
-        <v>4332.32017413376</v>
+        <v>4255.7333384215</v>
       </c>
       <c r="T44" t="n">
-        <v>4120.055732608494</v>
+        <v>4043.468896896233</v>
       </c>
       <c r="U44" t="n">
-        <v>3866.41036484572</v>
+        <v>3866.410364845718</v>
       </c>
       <c r="V44" t="n">
-        <v>3611.934313214407</v>
+        <v>3535.347477502147</v>
       </c>
       <c r="W44" t="n">
-        <v>3335.752493656551</v>
+        <v>3259.16565794429</v>
       </c>
       <c r="X44" t="n">
-        <v>2985.119681584337</v>
+        <v>2885.69989968321</v>
       </c>
       <c r="Y44" t="n">
-        <v>2594.980349608526</v>
+        <v>2495.560567707399</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>123.2101947360555</v>
       </c>
       <c r="I45" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J45" t="n">
         <v>235.3299811568568</v>
       </c>
       <c r="K45" t="n">
-        <v>613.80395740418</v>
+        <v>360.6875412146942</v>
       </c>
       <c r="L45" t="n">
-        <v>1184.113321345172</v>
+        <v>590.6506470830434</v>
       </c>
       <c r="M45" t="n">
-        <v>1901.616670949746</v>
+        <v>1308.153996687618</v>
       </c>
       <c r="N45" t="n">
-        <v>2630.081159113204</v>
+        <v>1556.252622616068</v>
       </c>
       <c r="O45" t="n">
-        <v>2630.081159113204</v>
+        <v>2177.953485678248</v>
       </c>
       <c r="P45" t="n">
-        <v>2630.081159113204</v>
+        <v>2360.596963291599</v>
       </c>
       <c r="Q45" t="n">
         <v>2630.081159113204</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>602.7133703858782</v>
+        <v>602.7133703858784</v>
       </c>
       <c r="C46" t="n">
-        <v>510.364023170229</v>
+        <v>510.3640231702292</v>
       </c>
       <c r="D46" t="n">
-        <v>436.8342194701509</v>
+        <v>436.8342194701511</v>
       </c>
       <c r="E46" t="n">
-        <v>365.5079616000155</v>
+        <v>365.5079616000156</v>
       </c>
       <c r="F46" t="n">
-        <v>295.2048498143628</v>
+        <v>295.2048498143629</v>
       </c>
       <c r="G46" t="n">
         <v>203.4446468543654</v>
@@ -7801,25 +7801,25 @@
         <v>128.0867539486564</v>
       </c>
       <c r="I46" t="n">
-        <v>87.97500001207418</v>
+        <v>87.97500001207415</v>
       </c>
       <c r="J46" t="n">
-        <v>163.5216526054723</v>
+        <v>163.5216526054727</v>
       </c>
       <c r="K46" t="n">
-        <v>369.2164349873993</v>
+        <v>369.2164349873995</v>
       </c>
       <c r="L46" t="n">
-        <v>666.9696438564063</v>
+        <v>666.9696438564065</v>
       </c>
       <c r="M46" t="n">
-        <v>987.2173819044046</v>
+        <v>987.2173819044049</v>
       </c>
       <c r="N46" t="n">
         <v>1307.06978555652</v>
       </c>
       <c r="O46" t="n">
-        <v>1592.219106129706</v>
+        <v>1592.219106129707</v>
       </c>
       <c r="P46" t="n">
         <v>1823.526529711422</v>
@@ -7828,10 +7828,10 @@
         <v>1923.329915108334</v>
       </c>
       <c r="R46" t="n">
-        <v>1881.120626993265</v>
+        <v>1881.120626993266</v>
       </c>
       <c r="S46" t="n">
-        <v>1754.794893768264</v>
+        <v>1754.794893768265</v>
       </c>
       <c r="T46" t="n">
         <v>1606.862614394795</v>
@@ -7846,10 +7846,10 @@
         <v>1003.383458120893</v>
       </c>
       <c r="X46" t="n">
-        <v>851.9807429351331</v>
+        <v>851.9807429351329</v>
       </c>
       <c r="Y46" t="n">
-        <v>707.7749995038602</v>
+        <v>707.7749995038605</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N3" t="n">
-        <v>407.4982257856888</v>
+        <v>404.1260279792961</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>162.5903899705948</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>209.2515523077284</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>166.6146233298529</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>381.946384738334</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>335.9439252974049</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>70.65437511607816</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>141.5864955603851</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>117.6081625890531</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.8834432478863</v>
       </c>
       <c r="T13" t="n">
-        <v>111.2186971577368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2466251161495</v>
+        <v>61.30366542772015</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.57757362397575</v>
+        <v>75.57757362397626</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.32237479022416</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.637106164315</v>
       </c>
       <c r="F16" t="n">
         <v>118.624191540677</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.8667118032784</v>
       </c>
       <c r="H16" t="n">
         <v>123.6284248495327</v>
       </c>
       <c r="I16" t="n">
-        <v>88.73474727009726</v>
+        <v>88.73474727009724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.8113061067989</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>174.0865867656321</v>
       </c>
       <c r="T16" t="n">
         <v>195.4770674526155</v>
       </c>
       <c r="U16" t="n">
-        <v>259.4497686338952</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>208.7191866520294</v>
       </c>
       <c r="W16" t="n">
-        <v>259.7261418543368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.996618791418</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>135.4114597081086</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>116.7801116276931</v>
@@ -23902,7 +23902,7 @@
         <v>113.585686632412</v>
       </c>
       <c r="G19" t="n">
-        <v>132.2205931638966</v>
+        <v>134.8282068950134</v>
       </c>
       <c r="H19" t="n">
         <v>118.5899199412677</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.77280119853386</v>
+        <v>85.77280119853387</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>169.0480818573671</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>111.7523829110431</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>147.9966187914181</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>116.7801116276932</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>114.59860125605</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>113.585686632412</v>
       </c>
       <c r="G22" t="n">
         <v>134.8282068950134</v>
       </c>
       <c r="H22" t="n">
-        <v>118.5899199412678</v>
+        <v>118.5899199412677</v>
       </c>
       <c r="I22" t="n">
-        <v>83.69624236183229</v>
+        <v>83.69624236183222</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.445406940418479</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>254.4112637256303</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>220.3022819333088</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>254.6876369460718</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>8.518431151621689</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>186.7492919615756</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.9966187914181</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>111.8856290208733</v>
       </c>
       <c r="D25" t="n">
-        <v>116.7801116276931</v>
+        <v>116.7801116276932</v>
       </c>
       <c r="E25" t="n">
         <v>114.59860125605</v>
@@ -24379,10 +24379,10 @@
         <v>134.8282068950134</v>
       </c>
       <c r="H25" t="n">
-        <v>118.5899199412677</v>
+        <v>118.5899199412678</v>
       </c>
       <c r="I25" t="n">
-        <v>83.69624236183226</v>
+        <v>83.69624236183228</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.82735521395121</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>254.6876369460718</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.7492919615756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>135.4114597081085</v>
       </c>
       <c r="D28" t="n">
         <v>116.780111627693</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.5986012560498</v>
       </c>
       <c r="F28" t="n">
-        <v>98.6648698822105</v>
+        <v>113.5856866324119</v>
       </c>
       <c r="G28" t="n">
-        <v>134.8282068950133</v>
+        <v>134.8282068950132</v>
       </c>
       <c r="H28" t="n">
         <v>118.5899199412676</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.69624236183212</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>169.048081857367</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.4385625443504</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>231.1618062588338</v>
       </c>
       <c r="V28" t="n">
-        <v>220.3022819333087</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>147.996618791418</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.4114597081086</v>
       </c>
       <c r="D31" t="n">
         <v>116.7801116276931</v>
@@ -24850,7 +24850,7 @@
         <v>113.585686632412</v>
       </c>
       <c r="G31" t="n">
-        <v>134.8282068950133</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.5899199412677</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77280119853383</v>
+        <v>48.94531250506315</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>169.048081857367</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>254.4112637256302</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>26.38920104277919</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1273398.593651096</v>
+        <v>1273398.593651095</v>
       </c>
     </row>
     <row r="11">
@@ -26314,7 +26314,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796424</v>
@@ -26323,22 +26323,22 @@
         <v>110947.0751879273</v>
       </c>
       <c r="F2" t="n">
-        <v>118046.282769579</v>
+        <v>118046.2827695789</v>
       </c>
       <c r="G2" t="n">
-        <v>119381.1181547903</v>
+        <v>119381.1181547902</v>
       </c>
       <c r="H2" t="n">
         <v>119381.1181547903</v>
       </c>
       <c r="I2" t="n">
-        <v>119381.1181547901</v>
+        <v>119381.11815479</v>
       </c>
       <c r="J2" t="n">
         <v>119381.1181547903</v>
       </c>
       <c r="K2" t="n">
-        <v>119381.1181547903</v>
+        <v>119381.1181547902</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
@@ -26347,7 +26347,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>414927.5590466262</v>
+        <v>414927.5590466264</v>
       </c>
       <c r="F3" t="n">
         <v>21437.48518580337</v>
       </c>
       <c r="G3" t="n">
-        <v>4030.803926612029</v>
+        <v>4030.803926612026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.545213520643301e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113922</v>
+        <v>72254.69487113925</v>
       </c>
       <c r="K3" t="n">
-        <v>123903.6023815501</v>
+        <v>123903.60238155</v>
       </c>
       <c r="L3" t="n">
-        <v>39219.28869830469</v>
+        <v>39219.28869830455</v>
       </c>
       <c r="M3" t="n">
-        <v>106011.4382680852</v>
+        <v>106011.4382680855</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>21437.48518580342</v>
+        <v>21437.48518580333</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>728.1203934551939</v>
+        <v>728.1203934551941</v>
       </c>
       <c r="F4" t="n">
         <v>27807.56912169192</v>
       </c>
       <c r="G4" t="n">
+        <v>32899.20871086116</v>
+      </c>
+      <c r="H4" t="n">
         <v>32899.20871086117</v>
       </c>
-      <c r="H4" t="n">
-        <v>32899.2087108611</v>
-      </c>
       <c r="I4" t="n">
-        <v>32899.20871086122</v>
+        <v>32899.20871086113</v>
       </c>
       <c r="J4" t="n">
-        <v>32899.20871086123</v>
+        <v>32899.20871086125</v>
       </c>
       <c r="K4" t="n">
         <v>32899.2087108612</v>
       </c>
       <c r="L4" t="n">
-        <v>47372.66511908542</v>
+        <v>47372.66511908553</v>
       </c>
       <c r="M4" t="n">
-        <v>47372.66511908543</v>
+        <v>47372.66511908545</v>
       </c>
       <c r="N4" t="n">
-        <v>47372.66511908541</v>
+        <v>47372.66511908549</v>
       </c>
       <c r="O4" t="n">
-        <v>47372.66511908539</v>
+        <v>47372.66511908549</v>
       </c>
       <c r="P4" t="n">
-        <v>47372.66511908543</v>
+        <v>47372.66511908552</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>82908.19314351464</v>
+        <v>82908.19314351465</v>
       </c>
       <c r="F5" t="n">
         <v>85160.9780711213</v>
@@ -26485,31 +26485,31 @@
         <v>85584.56014025422</v>
       </c>
       <c r="H5" t="n">
-        <v>85584.56014025419</v>
+        <v>85584.56014025421</v>
       </c>
       <c r="I5" t="n">
-        <v>85584.56014025421</v>
+        <v>85584.56014025424</v>
       </c>
       <c r="J5" t="n">
-        <v>85584.56014025421</v>
+        <v>85584.56014025424</v>
       </c>
       <c r="K5" t="n">
         <v>85584.56014025424</v>
       </c>
       <c r="L5" t="n">
-        <v>89282.38604809353</v>
+        <v>89282.3860480935</v>
       </c>
       <c r="M5" t="n">
         <v>89282.38604809353</v>
       </c>
       <c r="N5" t="n">
-        <v>89282.38604809353</v>
+        <v>89282.3860480935</v>
       </c>
       <c r="O5" t="n">
-        <v>89282.38604809353</v>
+        <v>89282.3860480935</v>
       </c>
       <c r="P5" t="n">
-        <v>89282.38604809353</v>
+        <v>89282.3860480935</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-320889.4893555688</v>
       </c>
       <c r="C6" t="n">
-        <v>-539470.0352791318</v>
+        <v>-539470.0352791316</v>
       </c>
       <c r="D6" t="n">
-        <v>-98761.95176438609</v>
+        <v>-98761.9517643861</v>
       </c>
       <c r="E6" t="n">
-        <v>-387616.7973956687</v>
+        <v>-387820.2839005308</v>
       </c>
       <c r="F6" t="n">
-        <v>-16359.74960903762</v>
+        <v>-16444.91598753877</v>
       </c>
       <c r="G6" t="n">
-        <v>-3133.454622937177</v>
+        <v>-3196.37374501805</v>
       </c>
       <c r="H6" t="n">
-        <v>897.3493036750733</v>
+        <v>834.4301815940114</v>
       </c>
       <c r="I6" t="n">
-        <v>897.3493036746368</v>
+        <v>834.4301815937348</v>
       </c>
       <c r="J6" t="n">
-        <v>-71357.34556746438</v>
+        <v>-71420.26468954535</v>
       </c>
       <c r="K6" t="n">
-        <v>-123006.2530778753</v>
+        <v>-123069.1721999561</v>
       </c>
       <c r="L6" t="n">
-        <v>-52718.07438584112</v>
+        <v>-52718.07438584109</v>
       </c>
       <c r="M6" t="n">
-        <v>-119510.2239556216</v>
+        <v>-119510.2239556219</v>
       </c>
       <c r="N6" t="n">
         <v>-13498.78568753638</v>
       </c>
       <c r="O6" t="n">
-        <v>-13498.78568753641</v>
+        <v>-13498.78568753658</v>
       </c>
       <c r="P6" t="n">
         <v>-34936.27087333988</v>
@@ -26701,31 +26701,31 @@
         <v>31.83536139051925</v>
       </c>
       <c r="H2" t="n">
+        <v>31.83536139051925</v>
+      </c>
+      <c r="I2" t="n">
         <v>31.83536139051919</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.83536139051921</v>
-      </c>
       <c r="J2" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="K2" t="n">
         <v>31.83536139051928</v>
       </c>
       <c r="L2" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="M2" t="n">
         <v>75.82096735513507</v>
       </c>
       <c r="N2" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="O2" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="P2" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>736.1097768045086</v>
+        <v>736.1097768045087</v>
       </c>
       <c r="F3" t="n">
-        <v>736.1097768045088</v>
+        <v>736.1097768045089</v>
       </c>
       <c r="G3" t="n">
         <v>736.1097768045088</v>
@@ -26771,10 +26771,10 @@
         <v>736.1097768045088</v>
       </c>
       <c r="N3" t="n">
-        <v>736.1097768045088</v>
+        <v>736.1097768045087</v>
       </c>
       <c r="O3" t="n">
-        <v>736.1097768045088</v>
+        <v>736.1097768045087</v>
       </c>
       <c r="P3" t="n">
         <v>736.1097768045087</v>
@@ -26920,7 +26920,7 @@
         <v>26.79685648225422</v>
       </c>
       <c r="G2" t="n">
-        <v>5.038504908265036</v>
+        <v>5.038504908265033</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>1.456612608308205e-13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26.79685648225416</v>
+      </c>
+      <c r="L2" t="n">
+        <v>49.02411087288083</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.030286966852145e-13</v>
       </c>
-      <c r="K2" t="n">
-        <v>26.79685648225419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>49.02411087288087</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>26.79685648225427</v>
+        <v>26.79685648225416</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>358.3661125874219</v>
+        <v>358.366112587422</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.4002273963712</v>
+        <v>425.4002273963714</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522006</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.4002273963712</v>
+        <v>425.4002273963719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>26.79685648225422</v>
       </c>
       <c r="L2" t="n">
-        <v>5.038504908265036</v>
+        <v>5.038504908265033</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>1.456612608308205e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>26.79685648225419</v>
+        <v>26.79685648225416</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.4002273963712</v>
+        <v>425.4002273963714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>178.7993369999963</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9823317116531</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27442,7 +27442,7 @@
         <v>73.08445501505753</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.7991438951915</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>80.83576148229287</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>81.00988358524829</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27588,7 +27588,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>155.4413947163797</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.0845076814944</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.0183762878722</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>240.087922430502</v>
+        <v>222.859634379992</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>83.36203824822863</v>
+        <v>49.80904827649567</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="C20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="D20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="E20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="F20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="G20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="H20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="I20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="T20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="U20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="V20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="W20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="X20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="C22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="D22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="E22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="F22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="G22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="H22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="I22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="J22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="K22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="L22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="M22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="N22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="O22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="P22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="R22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="S22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="T22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="U22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="V22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="W22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="X22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.83536139051919</v>
+        <v>31.83536139051925</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="C23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="D23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="E23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="F23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="G23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="H23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="I23" t="n">
-        <v>31.83536139052124</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="T23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="U23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="V23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="W23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051967</v>
       </c>
       <c r="X23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="C25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="D25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="E25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="F25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="G25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="H25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="I25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="J25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="K25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="L25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="M25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="N25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="O25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="P25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="R25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="S25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="T25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="U25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="V25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="W25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="X25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.83536139051921</v>
+        <v>31.83536139051919</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="C26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="D26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="E26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="F26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="G26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="H26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="I26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="T26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="U26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="V26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="W26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="X26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="C28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="D28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="E28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="F28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="G28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="H28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="I28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="J28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="K28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="L28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="M28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="N28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="O28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="P28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="R28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="S28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="T28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="U28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="V28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="W28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="X28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.83536139051931</v>
+        <v>31.83536139051934</v>
       </c>
     </row>
     <row r="29">
@@ -29746,13 +29746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.82096735513511</v>
+        <v>22.60461672698045</v>
       </c>
       <c r="C32" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="H32" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="I32" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,16 +29797,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="U32" t="n">
-        <v>22.60461672697753</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="V32" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="C34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="D34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="E34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="F34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="G34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="H34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="I34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="J34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="K34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="L34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="M34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="N34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="O34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="P34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="R34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="S34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="T34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="U34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="V34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="W34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="X34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513508</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>75.82096735513507</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>75.82096735513507</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>75.82096735513507</v>
       </c>
-      <c r="T35" t="n">
-        <v>75.82096735513507</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>22.60461672697824</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>22.60461672697863</v>
       </c>
       <c r="X35" t="n">
-        <v>75.82096735513507</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>75.82096735513508</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,16 +30232,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>75.82096735513508</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="I38" t="n">
-        <v>22.60461672697767</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,13 +30271,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>75.82096735513508</v>
+        <v>22.60461672697926</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="C40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="D40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="E40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="F40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="G40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="H40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="I40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="J40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="K40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="L40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="M40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="N40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="O40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="P40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="R40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="S40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="T40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="U40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="V40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="W40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="X40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.82096735513508</v>
+        <v>75.8209673551351</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30475,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60461672697812</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>75.82096735513502</v>
+        <v>22.6046167269799</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="T41" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="U41" t="n">
-        <v>75.82096735513502</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="W41" t="n">
-        <v>75.82096735513502</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="C43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="D43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="E43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="F43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="G43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="H43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="I43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="J43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="K43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="L43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="M43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="N43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="O43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="P43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="R43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="S43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="T43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="U43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="V43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="W43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="X43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.82096735513502</v>
+        <v>75.82096735513505</v>
       </c>
     </row>
     <row r="44">
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30706,16 +30706,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="G44" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="I44" t="n">
-        <v>75.82096735513511</v>
+        <v>22.60461672698038</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,22 +30745,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="V44" t="n">
-        <v>75.82096735513511</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="X44" t="n">
-        <v>22.60461672697795</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="C46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="D46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="E46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="F46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="G46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="H46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="I46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="J46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="K46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="L46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="M46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="N46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="O46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="P46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="R46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="S46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="T46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="U46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="V46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="W46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="X46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.82096735513511</v>
+        <v>75.82096735513505</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>8.263015293398212</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -31142,7 +31142,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
         <v>14.38448725650263</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,10 +31373,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638408</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,25 +31592,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.959235283636213</v>
+        <v>2.959235283636214</v>
       </c>
       <c r="H11" t="n">
         <v>30.30626834853938</v>
@@ -31762,13 +31762,13 @@
         <v>251.1613956545193</v>
       </c>
       <c r="K11" t="n">
-        <v>376.4258252108402</v>
+        <v>376.4258252108403</v>
       </c>
       <c r="L11" t="n">
         <v>466.9895220224221</v>
       </c>
       <c r="M11" t="n">
-        <v>519.6158224977876</v>
+        <v>519.6158224977877</v>
       </c>
       <c r="N11" t="n">
         <v>528.0237497474191</v>
@@ -31777,16 +31777,16 @@
         <v>498.5978538957614</v>
       </c>
       <c r="P11" t="n">
-        <v>425.5417328309923</v>
+        <v>425.5417328309924</v>
       </c>
       <c r="Q11" t="n">
-        <v>319.5641192357703</v>
+        <v>319.5641192357704</v>
       </c>
       <c r="R11" t="n">
-        <v>185.8880633857134</v>
+        <v>185.8880633857135</v>
       </c>
       <c r="S11" t="n">
-        <v>67.43357402586027</v>
+        <v>67.43357402586028</v>
       </c>
       <c r="T11" t="n">
         <v>12.95405245411753</v>
@@ -31835,40 +31835,40 @@
         <v>15.29163894833517</v>
       </c>
       <c r="I12" t="n">
-        <v>54.51379007467352</v>
+        <v>54.51379007467353</v>
       </c>
       <c r="J12" t="n">
         <v>149.5900066240181</v>
       </c>
       <c r="K12" t="n">
-        <v>255.6731476661471</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>122.478611839916</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>411.7978646672694</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>376.7145949274923</v>
       </c>
       <c r="P12" t="n">
-        <v>302.3466741746669</v>
+        <v>302.346674174667</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.1107447558341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>98.30537736268516</v>
+        <v>98.30537736268518</v>
       </c>
       <c r="S12" t="n">
-        <v>29.40966891289709</v>
+        <v>29.4096689128971</v>
       </c>
       <c r="T12" t="n">
-        <v>6.381932876257954</v>
+        <v>6.381932876257955</v>
       </c>
       <c r="U12" t="n">
         <v>0.1041664778496947</v>
@@ -31917,13 +31917,13 @@
         <v>39.9188711749068</v>
       </c>
       <c r="J13" t="n">
-        <v>93.8479628558797</v>
+        <v>93.84796285587971</v>
       </c>
       <c r="K13" t="n">
         <v>154.2210319272396</v>
       </c>
       <c r="L13" t="n">
-        <v>197.3498244239497</v>
+        <v>197.3498244239498</v>
       </c>
       <c r="M13" t="n">
         <v>208.0777193678711</v>
@@ -31941,16 +31941,16 @@
         <v>111.1525762974808</v>
       </c>
       <c r="R13" t="n">
-        <v>59.68522878811636</v>
+        <v>59.68522878811637</v>
       </c>
       <c r="S13" t="n">
         <v>23.13315478908594</v>
       </c>
       <c r="T13" t="n">
-        <v>5.671665493411785</v>
+        <v>5.671665493411786</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07240424034142715</v>
+        <v>0.07240424034142716</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.959235283636214</v>
+        <v>2.959235283636215</v>
       </c>
       <c r="H14" t="n">
-        <v>30.30626834853938</v>
+        <v>30.30626834853939</v>
       </c>
       <c r="I14" t="n">
-        <v>114.0859182723852</v>
+        <v>114.0859182723853</v>
       </c>
       <c r="J14" t="n">
-        <v>251.1613956545193</v>
+        <v>251.1613956545194</v>
       </c>
       <c r="K14" t="n">
-        <v>376.4258252108403</v>
+        <v>376.4258252108404</v>
       </c>
       <c r="L14" t="n">
-        <v>466.9895220224222</v>
+        <v>466.9895220224223</v>
       </c>
       <c r="M14" t="n">
-        <v>519.6158224977877</v>
+        <v>519.6158224977878</v>
       </c>
       <c r="N14" t="n">
-        <v>528.0237497474192</v>
+        <v>528.0237497474193</v>
       </c>
       <c r="O14" t="n">
-        <v>498.5978538957615</v>
+        <v>498.5978538957616</v>
       </c>
       <c r="P14" t="n">
-        <v>425.5417328309924</v>
+        <v>425.5417328309925</v>
       </c>
       <c r="Q14" t="n">
-        <v>319.5641192357704</v>
+        <v>319.5641192357705</v>
       </c>
       <c r="R14" t="n">
         <v>185.8880633857135</v>
       </c>
       <c r="S14" t="n">
-        <v>67.4335740258603</v>
+        <v>67.43357402586031</v>
       </c>
       <c r="T14" t="n">
-        <v>12.95405245411753</v>
+        <v>12.95405245411754</v>
       </c>
       <c r="U14" t="n">
         <v>0.2367388226908971</v>
@@ -32075,37 +32075,37 @@
         <v>54.51379007467354</v>
       </c>
       <c r="J15" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>255.6731476661472</v>
       </c>
       <c r="L15" t="n">
-        <v>343.7840990632756</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>329.0041424896028</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>376.7145949274924</v>
       </c>
       <c r="P15" t="n">
-        <v>283.1519317071416</v>
+        <v>302.3466741746671</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>98.30537736268519</v>
+        <v>98.30537736268521</v>
       </c>
       <c r="S15" t="n">
-        <v>29.4096689128971</v>
+        <v>29.40966891289711</v>
       </c>
       <c r="T15" t="n">
-        <v>6.381932876257956</v>
+        <v>6.381932876257957</v>
       </c>
       <c r="U15" t="n">
         <v>0.1041664778496947</v>
@@ -32148,13 +32148,13 @@
         <v>1.327411072926163</v>
       </c>
       <c r="H16" t="n">
-        <v>11.80189117565262</v>
+        <v>11.80189117565263</v>
       </c>
       <c r="I16" t="n">
-        <v>39.91887117490681</v>
+        <v>39.91887117490682</v>
       </c>
       <c r="J16" t="n">
-        <v>93.84796285587973</v>
+        <v>93.84796285587974</v>
       </c>
       <c r="K16" t="n">
         <v>154.2210319272397</v>
@@ -32166,7 +32166,7 @@
         <v>208.0777193678712</v>
       </c>
       <c r="N16" t="n">
-        <v>203.1300962778738</v>
+        <v>203.1300962778739</v>
       </c>
       <c r="O16" t="n">
         <v>187.6235214714181</v>
@@ -32178,16 +32178,16 @@
         <v>111.1525762974808</v>
       </c>
       <c r="R16" t="n">
-        <v>59.68522878811638</v>
+        <v>59.68522878811639</v>
       </c>
       <c r="S16" t="n">
         <v>23.13315478908595</v>
       </c>
       <c r="T16" t="n">
-        <v>5.671665493411787</v>
+        <v>5.671665493411788</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07240424034142717</v>
+        <v>0.07240424034142719</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>255.6731476661472</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>172.4888729538855</v>
       </c>
       <c r="M18" t="n">
-        <v>97.39247877086603</v>
+        <v>401.1798283584573</v>
       </c>
       <c r="N18" t="n">
-        <v>411.7978646672695</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>376.7145949274923</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>302.346674174667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>202.1107447558342</v>
@@ -32549,7 +32549,7 @@
         <v>54.51379007467354</v>
       </c>
       <c r="J21" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>255.6731476661472</v>
@@ -32558,7 +32558,7 @@
         <v>343.7840990632756</v>
       </c>
       <c r="M21" t="n">
-        <v>377.2040167475915</v>
+        <v>271.4635571699171</v>
       </c>
       <c r="N21" t="n">
         <v>411.7978646672695</v>
@@ -32792,19 +32792,19 @@
         <v>255.6731476661472</v>
       </c>
       <c r="L24" t="n">
-        <v>343.7840990632756</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>401.1798283584573</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8220530564039</v>
+        <v>324.5893565957499</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>302.346674174667</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>54.51379007467354</v>
       </c>
       <c r="J27" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>255.6731476661472</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>343.7840990632756</v>
@@ -33035,7 +33035,7 @@
         <v>401.1798283584573</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8220530564039</v>
+        <v>411.7978646672695</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33263,19 +33263,19 @@
         <v>149.5900066240182</v>
       </c>
       <c r="K30" t="n">
-        <v>255.6731476661472</v>
+        <v>232.205998095624</v>
       </c>
       <c r="L30" t="n">
         <v>343.7840990632756</v>
       </c>
       <c r="M30" t="n">
-        <v>401.1798283584573</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>376.7145949274923</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>54.51379007467354</v>
       </c>
       <c r="J33" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>255.6731476661472</v>
@@ -33506,19 +33506,19 @@
         <v>343.7840990632756</v>
       </c>
       <c r="M33" t="n">
-        <v>401.1798283584573</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>229.8846022490675</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>202.1107447558342</v>
       </c>
       <c r="R33" t="n">
         <v>98.30537736268519</v>
@@ -33734,25 +33734,25 @@
         <v>54.51379007467354</v>
       </c>
       <c r="J36" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>255.6731476661472</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>343.7840990632756</v>
+        <v>327.9260912012002</v>
       </c>
       <c r="M36" t="n">
         <v>401.1798283584573</v>
       </c>
       <c r="N36" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>302.346674174667</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33898,34 +33898,34 @@
         <v>376.4258252108403</v>
       </c>
       <c r="L38" t="n">
-        <v>466.9895220224222</v>
+        <v>466.9895220224221</v>
       </c>
       <c r="M38" t="n">
         <v>519.6158224977877</v>
       </c>
       <c r="N38" t="n">
-        <v>528.0237497474192</v>
+        <v>528.0237497474191</v>
       </c>
       <c r="O38" t="n">
-        <v>498.5978538957615</v>
+        <v>498.5978538957614</v>
       </c>
       <c r="P38" t="n">
         <v>425.5417328309924</v>
       </c>
       <c r="Q38" t="n">
-        <v>319.5641192357714</v>
+        <v>319.5641192357704</v>
       </c>
       <c r="R38" t="n">
         <v>185.8880633857135</v>
       </c>
       <c r="S38" t="n">
-        <v>67.4335740258603</v>
+        <v>67.43357402586028</v>
       </c>
       <c r="T38" t="n">
         <v>12.95405245411753</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2367388226908971</v>
+        <v>0.236738822690897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.583330463315359</v>
+        <v>1.583330463315358</v>
       </c>
       <c r="H39" t="n">
-        <v>15.29163894833518</v>
+        <v>15.29163894833517</v>
       </c>
       <c r="I39" t="n">
-        <v>54.51379007467354</v>
+        <v>54.51379007467353</v>
       </c>
       <c r="J39" t="n">
-        <v>149.5900066240182</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>255.6731476661472</v>
+        <v>255.6731476661471</v>
       </c>
       <c r="L39" t="n">
-        <v>343.7840990632756</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>401.1798283584573</v>
+        <v>401.1798283584572</v>
       </c>
       <c r="N39" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>376.7145949274923</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>202.1107447558342</v>
       </c>
       <c r="R39" t="n">
-        <v>98.30537736268519</v>
+        <v>98.30537736268518</v>
       </c>
       <c r="S39" t="n">
         <v>29.4096689128971</v>
       </c>
       <c r="T39" t="n">
-        <v>6.381932876257956</v>
+        <v>6.381932876257955</v>
       </c>
       <c r="U39" t="n">
         <v>0.1041664778496947</v>
@@ -34047,19 +34047,19 @@
         <v>11.80189117565262</v>
       </c>
       <c r="I40" t="n">
-        <v>39.91887117490681</v>
+        <v>39.9188711749068</v>
       </c>
       <c r="J40" t="n">
-        <v>93.84796285587973</v>
+        <v>93.84796285587971</v>
       </c>
       <c r="K40" t="n">
-        <v>154.2210319272397</v>
+        <v>154.2210319272396</v>
       </c>
       <c r="L40" t="n">
         <v>197.3498244239498</v>
       </c>
       <c r="M40" t="n">
-        <v>208.0777193678712</v>
+        <v>208.0777193678711</v>
       </c>
       <c r="N40" t="n">
         <v>203.1300962778738</v>
@@ -34068,22 +34068,22 @@
         <v>187.6235214714181</v>
       </c>
       <c r="P40" t="n">
-        <v>160.5443355837243</v>
+        <v>160.5443355837242</v>
       </c>
       <c r="Q40" t="n">
         <v>111.1525762974808</v>
       </c>
       <c r="R40" t="n">
-        <v>59.68522878811638</v>
+        <v>59.68522878811637</v>
       </c>
       <c r="S40" t="n">
-        <v>23.13315478908595</v>
+        <v>23.13315478908594</v>
       </c>
       <c r="T40" t="n">
-        <v>5.671665493411787</v>
+        <v>5.671665493411786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07240424034142717</v>
+        <v>0.07240424034142716</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,16 +34135,16 @@
         <v>376.4258252108403</v>
       </c>
       <c r="L41" t="n">
-        <v>466.9895220224222</v>
+        <v>466.9895220224221</v>
       </c>
       <c r="M41" t="n">
         <v>519.6158224977877</v>
       </c>
       <c r="N41" t="n">
-        <v>528.0237497474192</v>
+        <v>528.0237497474191</v>
       </c>
       <c r="O41" t="n">
-        <v>498.5978538957615</v>
+        <v>498.5978538957614</v>
       </c>
       <c r="P41" t="n">
         <v>425.5417328309924</v>
@@ -34156,13 +34156,13 @@
         <v>185.8880633857135</v>
       </c>
       <c r="S41" t="n">
-        <v>67.4335740258603</v>
+        <v>67.43357402586028</v>
       </c>
       <c r="T41" t="n">
         <v>12.95405245411753</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2367388226908971</v>
+        <v>0.236738822690897</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.583330463315359</v>
+        <v>1.583330463315358</v>
       </c>
       <c r="H42" t="n">
-        <v>15.29163894833518</v>
+        <v>15.29163894833517</v>
       </c>
       <c r="I42" t="n">
-        <v>54.51379007467354</v>
+        <v>54.51379007467353</v>
       </c>
       <c r="J42" t="n">
-        <v>149.5900066240182</v>
+        <v>149.5900066240181</v>
       </c>
       <c r="K42" t="n">
-        <v>255.6731476661472</v>
+        <v>255.6731476661471</v>
       </c>
       <c r="L42" t="n">
-        <v>343.7840990632756</v>
+        <v>23.64545765612527</v>
       </c>
       <c r="M42" t="n">
-        <v>401.1798283584573</v>
+        <v>401.1798283584572</v>
       </c>
       <c r="N42" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34229,16 +34229,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>202.1107447558342</v>
       </c>
       <c r="R42" t="n">
-        <v>98.30537736268519</v>
+        <v>98.30537736268518</v>
       </c>
       <c r="S42" t="n">
         <v>29.4096689128971</v>
       </c>
       <c r="T42" t="n">
-        <v>6.381932876257956</v>
+        <v>6.381932876257955</v>
       </c>
       <c r="U42" t="n">
         <v>0.1041664778496947</v>
@@ -34284,19 +34284,19 @@
         <v>11.80189117565262</v>
       </c>
       <c r="I43" t="n">
-        <v>39.91887117490681</v>
+        <v>39.9188711749068</v>
       </c>
       <c r="J43" t="n">
-        <v>93.84796285587973</v>
+        <v>93.84796285587971</v>
       </c>
       <c r="K43" t="n">
-        <v>154.2210319272397</v>
+        <v>154.2210319272396</v>
       </c>
       <c r="L43" t="n">
         <v>197.3498244239498</v>
       </c>
       <c r="M43" t="n">
-        <v>208.0777193678712</v>
+        <v>208.0777193678711</v>
       </c>
       <c r="N43" t="n">
         <v>203.1300962778738</v>
@@ -34305,22 +34305,22 @@
         <v>187.6235214714181</v>
       </c>
       <c r="P43" t="n">
-        <v>160.5443355837243</v>
+        <v>160.5443355837242</v>
       </c>
       <c r="Q43" t="n">
         <v>111.1525762974808</v>
       </c>
       <c r="R43" t="n">
-        <v>59.68522878811638</v>
+        <v>59.68522878811637</v>
       </c>
       <c r="S43" t="n">
-        <v>23.13315478908595</v>
+        <v>23.13315478908594</v>
       </c>
       <c r="T43" t="n">
-        <v>5.671665493411787</v>
+        <v>5.671665493411786</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07240424034142717</v>
+        <v>0.07240424034142716</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,10 +34375,10 @@
         <v>466.9895220224221</v>
       </c>
       <c r="M44" t="n">
-        <v>519.6158224977877</v>
+        <v>519.6158224977872</v>
       </c>
       <c r="N44" t="n">
-        <v>528.0237497474202</v>
+        <v>528.0237497474191</v>
       </c>
       <c r="O44" t="n">
         <v>498.5978538957614</v>
@@ -34448,25 +34448,25 @@
         <v>149.5900066240181</v>
       </c>
       <c r="K45" t="n">
-        <v>255.6731476661471</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>343.7840990632755</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>401.1798283584572</v>
       </c>
       <c r="N45" t="n">
-        <v>387.8220530564039</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>376.7145949274923</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>202.1107447558342</v>
       </c>
       <c r="R45" t="n">
         <v>98.30537736268518</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>134.8868133316178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>272.7843158959627</v>
       </c>
       <c r="O3" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918224</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.2121062999067</v>
+        <v>239.2121062999068</v>
       </c>
       <c r="K11" t="n">
-        <v>480.4813867370244</v>
+        <v>480.4813867370245</v>
       </c>
       <c r="L11" t="n">
-        <v>648.8843216028853</v>
+        <v>648.8843216028854</v>
       </c>
       <c r="M11" t="n">
-        <v>738.7831227633474</v>
+        <v>738.7831227633475</v>
       </c>
       <c r="N11" t="n">
         <v>735.9576105628123</v>
@@ -35425,13 +35425,13 @@
         <v>649.29982373682</v>
       </c>
       <c r="P11" t="n">
-        <v>516.1074452472054</v>
+        <v>516.1074452472055</v>
       </c>
       <c r="Q11" t="n">
-        <v>309.5734200212255</v>
+        <v>309.5734200212256</v>
       </c>
       <c r="R11" t="n">
-        <v>36.01894544456374</v>
+        <v>36.01894544456377</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>148.8434152977603</v>
       </c>
       <c r="K12" t="n">
-        <v>382.2969457043667</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>354.764577363501</v>
+        <v>24.03601019072058</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>759.7985269274897</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>627.9806697597774</v>
       </c>
       <c r="P12" t="n">
         <v>486.8350354002739</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.2062584056617</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4887827392069255</v>
+        <v>0.4887827392069397</v>
       </c>
       <c r="K13" t="n">
         <v>131.9515401013568</v>
@@ -35580,13 +35580,13 @@
         <v>247.2622686571024</v>
       </c>
       <c r="O13" t="n">
-        <v>212.2086493854577</v>
+        <v>212.2086493854578</v>
       </c>
       <c r="P13" t="n">
         <v>157.8228948486177</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.99053304578641</v>
+        <v>24.99053304578642</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>239.2121062999068</v>
+        <v>239.2121062999069</v>
       </c>
       <c r="K14" t="n">
-        <v>480.4813867370245</v>
+        <v>480.4813867370246</v>
       </c>
       <c r="L14" t="n">
-        <v>648.8843216028854</v>
+        <v>648.8843216028855</v>
       </c>
       <c r="M14" t="n">
-        <v>738.7831227633475</v>
+        <v>738.7831227633476</v>
       </c>
       <c r="N14" t="n">
-        <v>735.9576105628124</v>
+        <v>735.9576105628125</v>
       </c>
       <c r="O14" t="n">
-        <v>649.2998237368201</v>
+        <v>649.2998237368203</v>
       </c>
       <c r="P14" t="n">
         <v>516.1074452472055</v>
       </c>
       <c r="Q14" t="n">
-        <v>309.5734200212256</v>
+        <v>309.5734200212257</v>
       </c>
       <c r="R14" t="n">
-        <v>36.0189454445638</v>
+        <v>36.01894544456383</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>382.2969457043668</v>
+        <v>382.2969457043669</v>
       </c>
       <c r="L15" t="n">
-        <v>576.0700645868606</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>652.5751723175844</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>627.9806697597775</v>
       </c>
       <c r="P15" t="n">
-        <v>467.6402929327485</v>
+        <v>486.835035400274</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.28563922146117</v>
+        <v>27.28563922146118</v>
       </c>
       <c r="K16" t="n">
-        <v>158.748396583611</v>
+        <v>158.7483965836111</v>
       </c>
       <c r="L16" t="n">
         <v>251.7367061665202</v>
@@ -35823,7 +35823,7 @@
         <v>184.619751330872</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.78738952804065</v>
+        <v>51.78738952804066</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>382.2969457043668</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>404.7748384774705</v>
       </c>
       <c r="M18" t="n">
-        <v>420.9635085988476</v>
+        <v>724.7508581864388</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7985269274898</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>627.9806697597774</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>486.835035400274</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>272.2062584056618</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>382.2969457043668</v>
@@ -36206,7 +36206,7 @@
         <v>576.0700645868606</v>
       </c>
       <c r="M21" t="n">
-        <v>700.7750465755731</v>
+        <v>595.0345869978987</v>
       </c>
       <c r="N21" t="n">
         <v>759.7985269274898</v>
@@ -36215,10 +36215,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.32414412972614</v>
+        <v>32.32414412972621</v>
       </c>
       <c r="K22" t="n">
-        <v>163.786901491876</v>
+        <v>163.7869014918761</v>
       </c>
       <c r="L22" t="n">
-        <v>256.7752110747851</v>
+        <v>256.7752110747852</v>
       </c>
       <c r="M22" t="n">
         <v>279.496957720231</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0976300476216</v>
+        <v>279.0976300476217</v>
       </c>
       <c r="O22" t="n">
         <v>244.044010775977</v>
       </c>
       <c r="P22" t="n">
-        <v>189.6582562391369</v>
+        <v>189.658256239137</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.82589443630562</v>
+        <v>56.82589443630569</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>382.2969457043668</v>
       </c>
       <c r="L24" t="n">
-        <v>576.0700645868606</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>724.7508581864388</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>735.8227153166241</v>
+        <v>672.5900188559701</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>486.835035400274</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.32414412972616</v>
+        <v>32.32414412972615</v>
       </c>
       <c r="K25" t="n">
         <v>163.786901491876</v>
@@ -36531,10 +36531,10 @@
         <v>244.044010775977</v>
       </c>
       <c r="P25" t="n">
-        <v>189.658256239137</v>
+        <v>189.6582562391369</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.82589443630565</v>
+        <v>56.82589443630563</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>382.2969457043668</v>
+        <v>71.4101133333694</v>
       </c>
       <c r="L27" t="n">
         <v>576.0700645868606</v>
@@ -36683,13 +36683,13 @@
         <v>724.7508581864388</v>
       </c>
       <c r="N27" t="n">
-        <v>735.8227153166241</v>
+        <v>759.7985269274898</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.32414412972626</v>
+        <v>32.32414412972629</v>
       </c>
       <c r="K28" t="n">
-        <v>163.7869014918761</v>
+        <v>163.7869014918762</v>
       </c>
       <c r="L28" t="n">
         <v>256.7752110747853</v>
@@ -36771,7 +36771,7 @@
         <v>189.6582562391371</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.82589443630575</v>
+        <v>56.82589443630577</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>148.8434152977603</v>
       </c>
       <c r="K30" t="n">
-        <v>382.2969457043668</v>
+        <v>358.8297961338436</v>
       </c>
       <c r="L30" t="n">
         <v>576.0700645868606</v>
       </c>
       <c r="M30" t="n">
-        <v>724.7508581864388</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>735.8227153166241</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>627.9806697597774</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>382.2969457043668</v>
@@ -37154,19 +37154,19 @@
         <v>576.0700645868606</v>
       </c>
       <c r="M33" t="n">
-        <v>724.7508581864388</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>735.8227153166241</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.3729634746745</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>272.2062584056618</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.30975009434206</v>
+        <v>76.30975009434204</v>
       </c>
       <c r="K34" t="n">
         <v>207.7725074564919</v>
@@ -37233,7 +37233,7 @@
         <v>300.760817039401</v>
       </c>
       <c r="M34" t="n">
-        <v>323.4825636848469</v>
+        <v>323.4825636848468</v>
       </c>
       <c r="N34" t="n">
         <v>323.0832360122375</v>
@@ -37242,7 +37242,7 @@
         <v>288.0296167405929</v>
       </c>
       <c r="P34" t="n">
-        <v>233.6438622037529</v>
+        <v>233.6438622037528</v>
       </c>
       <c r="Q34" t="n">
         <v>100.8115004009215</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>382.2969457043668</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>576.0700645868606</v>
+        <v>560.2120567247852</v>
       </c>
       <c r="M36" t="n">
         <v>724.7508581864388</v>
       </c>
       <c r="N36" t="n">
-        <v>735.8227153166241</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>486.835035400274</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,19 +37552,19 @@
         <v>738.7831227633475</v>
       </c>
       <c r="N38" t="n">
-        <v>735.9576105628124</v>
+        <v>735.9576105628123</v>
       </c>
       <c r="O38" t="n">
-        <v>649.2998237368201</v>
+        <v>649.29982373682</v>
       </c>
       <c r="P38" t="n">
         <v>516.1074452472055</v>
       </c>
       <c r="Q38" t="n">
-        <v>309.5734200212266</v>
+        <v>309.5734200212256</v>
       </c>
       <c r="R38" t="n">
-        <v>36.0189454445638</v>
+        <v>36.01894544456377</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>148.8434152977603</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>382.2969457043668</v>
+        <v>382.2969457043667</v>
       </c>
       <c r="L39" t="n">
-        <v>576.0700645868606</v>
+        <v>28.06024354997876</v>
       </c>
       <c r="M39" t="n">
         <v>724.7508581864388</v>
       </c>
       <c r="N39" t="n">
-        <v>735.8227153166241</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>627.9806697597774</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>272.2062584056617</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>738.7831227633475</v>
       </c>
       <c r="N41" t="n">
-        <v>735.9576105628124</v>
+        <v>735.9576105628123</v>
       </c>
       <c r="O41" t="n">
-        <v>649.2998237368201</v>
+        <v>649.29982373682</v>
       </c>
       <c r="P41" t="n">
         <v>516.1074452472055</v>
@@ -37801,7 +37801,7 @@
         <v>309.5734200212256</v>
       </c>
       <c r="R41" t="n">
-        <v>36.0189454445638</v>
+        <v>36.01894544456377</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>148.8434152977603</v>
       </c>
       <c r="K42" t="n">
-        <v>382.2969457043668</v>
+        <v>382.2969457043667</v>
       </c>
       <c r="L42" t="n">
-        <v>576.0700645868606</v>
+        <v>255.9314231797103</v>
       </c>
       <c r="M42" t="n">
         <v>724.7508581864388</v>
       </c>
       <c r="N42" t="n">
-        <v>735.8227153166241</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>272.2062584056617</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>76.30975009434198</v>
+        <v>76.30975009434199</v>
       </c>
       <c r="K43" t="n">
         <v>207.7725074564918</v>
@@ -38023,10 +38023,10 @@
         <v>648.8843216028854</v>
       </c>
       <c r="M44" t="n">
-        <v>738.7831227633475</v>
+        <v>738.783122763347</v>
       </c>
       <c r="N44" t="n">
-        <v>735.9576105628134</v>
+        <v>735.9576105628123</v>
       </c>
       <c r="O44" t="n">
         <v>649.29982373682</v>
@@ -38096,25 +38096,25 @@
         <v>148.8434152977603</v>
       </c>
       <c r="K45" t="n">
-        <v>382.2969457043667</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>576.0700645868606</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>724.7508581864388</v>
       </c>
       <c r="N45" t="n">
-        <v>735.8227153166241</v>
+        <v>250.6046726550007</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>627.9806697597774</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>272.2062584056617</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>76.30975009434205</v>
+        <v>76.30975009434199</v>
       </c>
       <c r="K46" t="n">
-        <v>207.7725074564919</v>
+        <v>207.7725074564918</v>
       </c>
       <c r="L46" t="n">
         <v>300.760817039401</v>
@@ -38184,10 +38184,10 @@
         <v>323.4825636848468</v>
       </c>
       <c r="N46" t="n">
-        <v>323.0832360122375</v>
+        <v>323.0832360122374</v>
       </c>
       <c r="O46" t="n">
-        <v>288.0296167405929</v>
+        <v>288.0296167405928</v>
       </c>
       <c r="P46" t="n">
         <v>233.6438622037528</v>
